--- a/private/ITEMS_1.xlsx
+++ b/private/ITEMS_1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31215" windowHeight="15675" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31215" windowHeight="15675"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL_ITEMS" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="TRINKETS" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$C$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$C$95</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
   <si>
     <t>Abyssal Mask</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Hextech Protobelt-01</t>
   </si>
   <si>
-    <t>Hunter's Potion</t>
-  </si>
-  <si>
     <t>Iceborn Gauntlet</t>
   </si>
   <si>
@@ -308,6 +305,18 @@
   </si>
   <si>
     <t>red</t>
+  </si>
+  <si>
+    <t>Enchantment: Bloodrazor</t>
+  </si>
+  <si>
+    <t>Enchantment: Runic Echoes</t>
+  </si>
+  <si>
+    <t>Enchantment: Cinderhulk</t>
+  </si>
+  <si>
+    <t>Enchantment: Warrior</t>
   </si>
 </sst>
 </file>
@@ -679,11 +688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,13 +704,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -712,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -723,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -731,7 +740,7 @@
         <v>3187</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -936,7 +945,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2032</v>
+        <v>3025</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
@@ -944,26 +953,26 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>3025</v>
+        <v>3031</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>3031</v>
+        <v>3109</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3109</v>
+        <v>3151</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -971,7 +980,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>3151</v>
+        <v>3100</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -979,26 +988,26 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>3100</v>
+        <v>3190</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>3190</v>
+        <v>3036</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>3036</v>
+        <v>3104</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -1006,7 +1015,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>3104</v>
+        <v>3285</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
@@ -1014,7 +1023,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>3285</v>
+        <v>3004</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
@@ -1022,7 +1031,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>3004</v>
+        <v>3156</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
@@ -1030,7 +1039,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>3156</v>
+        <v>3041</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
@@ -1038,7 +1047,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>3041</v>
+        <v>3139</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
@@ -1046,15 +1055,15 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>3139</v>
+        <v>3222</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>3222</v>
+        <v>3170</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1062,7 +1071,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>3170</v>
+        <v>3165</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1070,7 +1079,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>3165</v>
+        <v>3033</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -1078,7 +1087,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>3033</v>
+        <v>3115</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1086,15 +1095,15 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>3115</v>
+        <v>3056</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>3056</v>
+        <v>3198</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
@@ -1102,7 +1111,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>3198</v>
+        <v>3046</v>
       </c>
       <c r="B50" t="s">
         <v>52</v>
@@ -1110,26 +1119,26 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>3046</v>
+        <v>3089</v>
       </c>
       <c r="B51" t="s">
         <v>53</v>
       </c>
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>3089</v>
+        <v>3143</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
       </c>
-      <c r="C52" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>3143</v>
+        <v>3094</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
@@ -1137,7 +1146,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>3094</v>
+        <v>3074</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
@@ -1145,26 +1154,26 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>3074</v>
+        <v>3107</v>
       </c>
       <c r="B55" t="s">
         <v>57</v>
       </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>3107</v>
+        <v>3800</v>
       </c>
       <c r="B56" t="s">
         <v>58</v>
       </c>
-      <c r="C56" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>3800</v>
+        <v>3027</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
@@ -1172,7 +1181,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>3027</v>
+        <v>2045</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
@@ -1180,7 +1189,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2045</v>
+        <v>3085</v>
       </c>
       <c r="B59" t="s">
         <v>61</v>
@@ -1188,7 +1197,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>3085</v>
+        <v>3116</v>
       </c>
       <c r="B60" t="s">
         <v>62</v>
@@ -1196,15 +1205,15 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>3116</v>
+        <v>3065</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>3065</v>
+        <v>3087</v>
       </c>
       <c r="B62" t="s">
         <v>65</v>
@@ -1212,7 +1221,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>3087</v>
+        <v>3053</v>
       </c>
       <c r="B63" t="s">
         <v>66</v>
@@ -1220,45 +1229,45 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>3053</v>
+        <v>3068</v>
       </c>
       <c r="B64" t="s">
         <v>67</v>
       </c>
+      <c r="C64" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="B65" t="s">
         <v>68</v>
       </c>
-      <c r="C65" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>3069</v>
+        <v>3071</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
       </c>
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="B67" t="s">
         <v>70</v>
       </c>
-      <c r="C67" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>3072</v>
+        <v>3185</v>
       </c>
       <c r="B68" t="s">
         <v>71</v>
@@ -1266,7 +1275,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>3185</v>
+        <v>3075</v>
       </c>
       <c r="B69" t="s">
         <v>72</v>
@@ -1274,7 +1283,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>3075</v>
+        <v>3748</v>
       </c>
       <c r="B70" t="s">
         <v>73</v>
@@ -1282,26 +1291,26 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>3748</v>
+        <v>3078</v>
       </c>
       <c r="B71" t="s">
         <v>74</v>
       </c>
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>3078</v>
+        <v>3135</v>
       </c>
       <c r="B72" t="s">
         <v>75</v>
       </c>
-      <c r="C72" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>3135</v>
+        <v>3083</v>
       </c>
       <c r="B73" t="s">
         <v>76</v>
@@ -1309,7 +1318,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>3083</v>
+        <v>3091</v>
       </c>
       <c r="B74" t="s">
         <v>77</v>
@@ -1317,26 +1326,26 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="B75" t="s">
         <v>78</v>
       </c>
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>3090</v>
+        <v>3142</v>
       </c>
       <c r="B76" t="s">
         <v>79</v>
       </c>
-      <c r="C76" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>3142</v>
+        <v>3050</v>
       </c>
       <c r="B77" t="s">
         <v>80</v>
@@ -1344,33 +1353,153 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>3050</v>
+        <v>3157</v>
       </c>
       <c r="B78" t="s">
         <v>81</v>
       </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>3157</v>
+        <v>3512</v>
       </c>
       <c r="B79" t="s">
         <v>82</v>
       </c>
-      <c r="C79" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>3512</v>
+        <v>1419</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1418</v>
+      </c>
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3675</v>
+      </c>
+      <c r="B82" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1416</v>
+      </c>
+      <c r="B83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1409</v>
+      </c>
+      <c r="B84" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1401</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3672</v>
+      </c>
+      <c r="B86" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1413</v>
+      </c>
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1414</v>
+      </c>
+      <c r="B88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1410</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3673</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1402</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1400</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3671</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1412</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1408</v>
+      </c>
+      <c r="B95" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C80"/>
+  <autoFilter ref="A1:C95"/>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
   </hyperlinks>
@@ -1390,10 +1519,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1417,7 +1546,7 @@
         <v>3158</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1433,7 +1562,7 @@
         <v>3047</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1441,7 +1570,7 @@
         <v>3111</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1449,7 +1578,7 @@
         <v>3020</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1461,16 +1590,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1478,7 +1607,7 @@
         <v>3340</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1486,7 +1615,7 @@
         <v>3363</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1494,7 +1623,7 @@
         <v>3364</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1502,7 +1631,7 @@
         <v>3341</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/private/ITEMS_1.xlsx
+++ b/private/ITEMS_1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -17,7 +17,9 @@
     <sheet name="TRINKETS" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BOOTS!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$C$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TRINKETS!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
   <si>
     <t>Abyssal Mask</t>
   </si>
@@ -317,6 +319,15 @@
   </si>
   <si>
     <t>Enchantment: Warrior</t>
+  </si>
+  <si>
+    <t>Oblivion Orb</t>
+  </si>
+  <si>
+    <t>Spellbinder</t>
+  </si>
+  <si>
+    <t>Twin Shadows</t>
   </si>
 </sst>
 </file>
@@ -688,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1498,6 +1509,30 @@
         <v>95</v>
       </c>
     </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>3916</v>
+      </c>
+      <c r="B96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>3907</v>
+      </c>
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>3905</v>
+      </c>
+      <c r="B98" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C95"/>
   <hyperlinks>
@@ -1512,10 +1547,14 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1582,6 +1621,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1590,9 +1630,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1635,6 +1681,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/private/ITEMS_1.xlsx
+++ b/private/ITEMS_1.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
   <si>
     <t>Abyssal Mask</t>
   </si>
@@ -319,9 +319,6 @@
   </si>
   <si>
     <t>Enchantment: Warrior</t>
-  </si>
-  <si>
-    <t>Oblivion Orb</t>
   </si>
   <si>
     <t>Spellbinder</t>
@@ -699,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1511,7 +1508,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>3916</v>
+        <v>3907</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
@@ -1519,18 +1516,10 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>3907</v>
+        <v>3905</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>3905</v>
-      </c>
-      <c r="B98" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/private/ITEMS_1.xlsx
+++ b/private/ITEMS_1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
   <si>
     <t>Abyssal Mask</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>Twin Shadows</t>
+  </si>
+  <si>
+    <t>Shurelya's Reverie</t>
   </si>
 </sst>
 </file>
@@ -696,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1520,6 +1523,14 @@
       </c>
       <c r="B97" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2065</v>
+      </c>
+      <c r="B98" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/private/ITEMS_1.xlsx
+++ b/private/ITEMS_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAC0774-3382-40D3-8E00-3CA70359D7B8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31215" windowHeight="15675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31215" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL_ITEMS" sheetId="3" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="100">
   <si>
     <t>Abyssal Mask</t>
   </si>
@@ -328,12 +329,15 @@
   </si>
   <si>
     <t>Shurelya's Reverie</t>
+  </si>
+  <si>
+    <t>Stormrazor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -698,12 +702,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,17 +1537,25 @@
         <v>98</v>
       </c>
     </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3095</v>
+      </c>
+      <c r="B99" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C95"/>
+  <autoFilter ref="A1:C95" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1621,13 +1633,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1681,7 +1693,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/private/ITEMS_1.xlsx
+++ b/private/ITEMS_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAC0774-3382-40D3-8E00-3CA70359D7B8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB890628-BFA0-4BA4-9F1E-2834F31E7D23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="31215" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
   <si>
     <t>Abyssal Mask</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>Stormrazor</t>
+  </si>
+  <si>
+    <t>Spear of Shojin</t>
   </si>
 </sst>
 </file>
@@ -703,11 +706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,6 +1546,14 @@
       </c>
       <c r="B99" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3161</v>
+      </c>
+      <c r="B100" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/private/ITEMS_1.xlsx
+++ b/private/ITEMS_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB890628-BFA0-4BA4-9F1E-2834F31E7D23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D1E11A-2861-4BA9-84B7-3E381547C601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31215" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59355" yWindow="1050" windowWidth="29520" windowHeight="19020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL_ITEMS" sheetId="3" r:id="rId1"/>
@@ -19,20 +19,26 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BOOTS!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$C$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$C$102</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TRINKETS!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
   <si>
     <t>Abyssal Mask</t>
   </si>
@@ -335,6 +341,12 @@
   </si>
   <si>
     <t>Spear of Shojin</t>
+  </si>
+  <si>
+    <t>Sanguine Blade</t>
+  </si>
+  <si>
+    <t>Umbral Glaive</t>
   </si>
 </sst>
 </file>
@@ -706,11 +718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,8 +1568,24 @@
         <v>100</v>
       </c>
     </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>3181</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>3179</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C95" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C102" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>

--- a/private/ITEMS_1.xlsx
+++ b/private/ITEMS_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D1E11A-2861-4BA9-84B7-3E381547C601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73712CE-1067-465D-AFD4-3F445B00FD99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59355" yWindow="1050" windowWidth="29520" windowHeight="19020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL_ITEMS" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BOOTS!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$C$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$C$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TRINKETS!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
   <si>
     <t>Abyssal Mask</t>
   </si>
@@ -347,6 +347,18 @@
   </si>
   <si>
     <t>Umbral Glaive</t>
+  </si>
+  <si>
+    <t>Black Mist Scythe</t>
+  </si>
+  <si>
+    <t>Pauldrons of Whiterock</t>
+  </si>
+  <si>
+    <t>Bulwark of the Mountain</t>
+  </si>
+  <si>
+    <t>Shard of True Ice</t>
   </si>
 </sst>
 </file>
@@ -718,11 +730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,543 +835,549 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3153</v>
+        <v>3864</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3742</v>
+        <v>3153</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3812</v>
+        <v>3860</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3147</v>
+        <v>3742</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3814</v>
+        <v>3812</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3508</v>
+        <v>3147</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2303</v>
+        <v>3814</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2302</v>
+        <v>3508</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3401</v>
+        <v>2302</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3092</v>
+        <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3110</v>
+        <v>3401</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3022</v>
+        <v>3092</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3193</v>
+        <v>3110</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3026</v>
+        <v>3022</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>3124</v>
+        <v>3193</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>3030</v>
+        <v>3026</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>3146</v>
+        <v>3124</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>3152</v>
+        <v>3030</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>3025</v>
+        <v>3146</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>3031</v>
+        <v>3152</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>3109</v>
+        <v>3025</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3151</v>
+        <v>3031</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>3100</v>
+        <v>3109</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>3190</v>
+        <v>3151</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>3036</v>
+        <v>3100</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>3104</v>
+        <v>3190</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>3285</v>
+        <v>3036</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>3004</v>
+        <v>3104</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>3156</v>
+        <v>3285</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>3041</v>
+        <v>3004</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>3139</v>
+        <v>3156</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>3222</v>
+        <v>3041</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>3170</v>
+        <v>3139</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>3165</v>
+        <v>3222</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>3033</v>
+        <v>3170</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>3115</v>
+        <v>3165</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>3056</v>
+        <v>3033</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>3198</v>
+        <v>3115</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>3046</v>
+        <v>3056</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>3089</v>
+        <v>3857</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>3143</v>
+        <v>3198</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>3094</v>
+        <v>3046</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>3074</v>
+        <v>3089</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>3107</v>
+        <v>3143</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>3800</v>
+        <v>3094</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>3027</v>
+        <v>3074</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2045</v>
+        <v>3107</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>3085</v>
+        <v>3800</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>3116</v>
+        <v>3027</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>3065</v>
+        <v>2045</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>3087</v>
+        <v>3085</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>3053</v>
+        <v>3116</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>3069</v>
+        <v>3853</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>3071</v>
+        <v>3087</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>3072</v>
+        <v>3053</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>3185</v>
+        <v>3068</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>3075</v>
+        <v>3069</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>3748</v>
+        <v>3071</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>3078</v>
+        <v>3072</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>3135</v>
+        <v>3185</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>3083</v>
+        <v>3075</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>3091</v>
+        <v>3748</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>3090</v>
+        <v>3078</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
         <v>86</v>
@@ -1367,225 +1385,260 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>3142</v>
+        <v>3135</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>3050</v>
+        <v>3083</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>3157</v>
+        <v>3091</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>3512</v>
+        <v>3090</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
+        <v>3142</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3050</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3157</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3512</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>1419</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B84" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>1418</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B85" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>3675</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B86" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>1416</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B87" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>1409</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B88" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>1401</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B89" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>3672</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B90" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>1413</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B91" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>1414</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B92" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>1410</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B93" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>3673</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>1402</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>1400</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B96" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>3671</v>
-      </c>
-      <c r="B93" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>1412</v>
-      </c>
-      <c r="B94" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>1408</v>
-      </c>
-      <c r="B95" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>3907</v>
-      </c>
-      <c r="B96" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>3905</v>
+        <v>3671</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>2065</v>
+        <v>1412</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>3095</v>
+        <v>1408</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>3161</v>
+        <v>3907</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>3181</v>
+        <v>3905</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
+        <v>2065</v>
+      </c>
+      <c r="B102" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3095</v>
+      </c>
+      <c r="B103" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>3161</v>
+      </c>
+      <c r="B104" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>3181</v>
+      </c>
+      <c r="B105" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>3179</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B106" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C102" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C106" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>

--- a/private/ITEMS_1.xlsx
+++ b/private/ITEMS_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\Assets\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv1\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73712CE-1067-465D-AFD4-3F445B00FD99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6C0D6D-73B6-4B30-B372-4E8CF6FD189B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL_ITEMS" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="140">
   <si>
     <t>Abyssal Mask</t>
   </si>
@@ -359,6 +359,105 @@
   </si>
   <si>
     <t>Shard of True Ice</t>
+  </si>
+  <si>
+    <t>Staff of Flowing Water</t>
+  </si>
+  <si>
+    <t>Force of Nature</t>
+  </si>
+  <si>
+    <t>Chempunk Chainsword</t>
+  </si>
+  <si>
+    <t>Chemtech Putrifier</t>
+  </si>
+  <si>
+    <t>Cosmic Drive</t>
+  </si>
+  <si>
+    <t>Demonic Embrace</t>
+  </si>
+  <si>
+    <t>Divine Sunderer</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>Everfrost</t>
+  </si>
+  <si>
+    <t>Frostfire Gauntlet</t>
+  </si>
+  <si>
+    <t>Galeforce</t>
+  </si>
+  <si>
+    <t>Goredrinker</t>
+  </si>
+  <si>
+    <t>Hextech Rocketbelt</t>
+  </si>
+  <si>
+    <t>Horizon Focus</t>
+  </si>
+  <si>
+    <t>Immortal Shieldbow</t>
+  </si>
+  <si>
+    <t>Imperial Mandate</t>
+  </si>
+  <si>
+    <t>Kraken Slayer</t>
+  </si>
+  <si>
+    <t>Liandry's Anguish</t>
+  </si>
+  <si>
+    <t>Luden's Tempest</t>
+  </si>
+  <si>
+    <t>Mikael's Blessing</t>
+  </si>
+  <si>
+    <t>Moonstone Renewer</t>
+  </si>
+  <si>
+    <t>Navori Quickblades</t>
+  </si>
+  <si>
+    <t>Night Harvester</t>
+  </si>
+  <si>
+    <t>Prowler's Claw</t>
+  </si>
+  <si>
+    <t>Riftmaker</t>
+  </si>
+  <si>
+    <t>Serpent's Fang</t>
+  </si>
+  <si>
+    <t>Serylda's Grudge</t>
+  </si>
+  <si>
+    <t>Shurelya's Battlesong</t>
+  </si>
+  <si>
+    <t>Silvermere Dawn</t>
+  </si>
+  <si>
+    <t>Stridebreaker</t>
+  </si>
+  <si>
+    <t>Sunfire Aegis</t>
+  </si>
+  <si>
+    <t>The Collector</t>
+  </si>
+  <si>
+    <t>Turbo Chemtank</t>
   </si>
 </sst>
 </file>
@@ -730,11 +829,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,7 +1656,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3671</v>
       </c>
@@ -1565,7 +1664,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1412</v>
       </c>
@@ -1573,7 +1672,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1408</v>
       </c>
@@ -1581,7 +1680,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3907</v>
       </c>
@@ -1589,7 +1688,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3905</v>
       </c>
@@ -1597,7 +1696,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2065</v>
       </c>
@@ -1605,7 +1704,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3095</v>
       </c>
@@ -1613,7 +1712,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3161</v>
       </c>
@@ -1621,7 +1720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3181</v>
       </c>
@@ -1629,12 +1728,355 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3179</v>
       </c>
       <c r="B106" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>6333</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>6691</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>6616</v>
+      </c>
+      <c r="B109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>4401</v>
+      </c>
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>6609</v>
+      </c>
+      <c r="B111" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>3011</v>
+      </c>
+      <c r="B112" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>4629</v>
+      </c>
+      <c r="B113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>4637</v>
+      </c>
+      <c r="B114" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>6632</v>
+      </c>
+      <c r="B115" t="s">
+        <v>113</v>
+      </c>
+      <c r="C115" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>6692</v>
+      </c>
+      <c r="B116" t="s">
+        <v>114</v>
+      </c>
+      <c r="C116" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>6656</v>
+      </c>
+      <c r="B117" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>6662</v>
+      </c>
+      <c r="B118" t="s">
+        <v>116</v>
+      </c>
+      <c r="C118" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>6671</v>
+      </c>
+      <c r="B119" t="s">
+        <v>117</v>
+      </c>
+      <c r="C119" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>6630</v>
+      </c>
+      <c r="B120" t="s">
+        <v>118</v>
+      </c>
+      <c r="C120" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>3152</v>
+      </c>
+      <c r="B121" t="s">
+        <v>119</v>
+      </c>
+      <c r="C121" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>4628</v>
+      </c>
+      <c r="B122" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>6673</v>
+      </c>
+      <c r="B123" t="s">
+        <v>121</v>
+      </c>
+      <c r="C123" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>4005</v>
+      </c>
+      <c r="B124" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>6672</v>
+      </c>
+      <c r="B125" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>6653</v>
+      </c>
+      <c r="B126" t="s">
+        <v>124</v>
+      </c>
+      <c r="C126" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>6655</v>
+      </c>
+      <c r="B127" t="s">
+        <v>125</v>
+      </c>
+      <c r="C127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>3222</v>
+      </c>
+      <c r="B128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>6617</v>
+      </c>
+      <c r="B129" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>6675</v>
+      </c>
+      <c r="B130" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>4636</v>
+      </c>
+      <c r="B131" t="s">
+        <v>129</v>
+      </c>
+      <c r="C131" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>6693</v>
+      </c>
+      <c r="B132" t="s">
+        <v>130</v>
+      </c>
+      <c r="C132" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>4633</v>
+      </c>
+      <c r="B133" t="s">
+        <v>131</v>
+      </c>
+      <c r="C133" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>6695</v>
+      </c>
+      <c r="B134" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>6694</v>
+      </c>
+      <c r="B135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2065</v>
+      </c>
+      <c r="B136" t="s">
+        <v>134</v>
+      </c>
+      <c r="C136" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>6035</v>
+      </c>
+      <c r="B137" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>6631</v>
+      </c>
+      <c r="B138" t="s">
+        <v>136</v>
+      </c>
+      <c r="C138" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>3068</v>
+      </c>
+      <c r="B139" t="s">
+        <v>137</v>
+      </c>
+      <c r="C139" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>6676</v>
+      </c>
+      <c r="B140" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>6664</v>
+      </c>
+      <c r="B141" t="s">
+        <v>139</v>
+      </c>
+      <c r="C141" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/private/ITEMS_1.xlsx
+++ b/private/ITEMS_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv1\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6C0D6D-73B6-4B30-B372-4E8CF6FD189B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1384CC2E-34E2-4BF9-9D5F-B068EA056D52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25350" yWindow="105" windowWidth="26520" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL_ITEMS" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BOOTS!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$C$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$D$141</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TRINKETS!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="141">
   <si>
     <t>Abyssal Mask</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>Turbo Chemtank</t>
+  </si>
+  <si>
+    <t>SincePatch</t>
   </si>
 </sst>
 </file>
@@ -829,11 +832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G117" sqref="G117"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,9 +844,10 @@
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="44.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -853,8 +857,14 @@
       <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3001</v>
       </c>
@@ -865,18 +875,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3194</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3187</v>
       </c>
@@ -884,7 +891,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3003</v>
       </c>
@@ -892,7 +899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3504</v>
       </c>
@@ -900,7 +907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3174</v>
       </c>
@@ -908,7 +915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3060</v>
       </c>
@@ -916,7 +923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3102</v>
       </c>
@@ -924,7 +931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3006</v>
       </c>
@@ -932,7 +939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3864</v>
       </c>
@@ -940,7 +947,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3153</v>
       </c>
@@ -951,7 +958,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3860</v>
       </c>
@@ -959,7 +966,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3742</v>
       </c>
@@ -967,7 +974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3812</v>
       </c>
@@ -975,7 +982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3147</v>
       </c>
@@ -1656,7 +1663,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3671</v>
       </c>
@@ -1664,7 +1671,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1412</v>
       </c>
@@ -1672,7 +1679,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1408</v>
       </c>
@@ -1680,7 +1687,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3907</v>
       </c>
@@ -1688,7 +1695,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3905</v>
       </c>
@@ -1696,7 +1703,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2065</v>
       </c>
@@ -1704,7 +1711,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3095</v>
       </c>
@@ -1712,7 +1719,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3161</v>
       </c>
@@ -1720,7 +1727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3181</v>
       </c>
@@ -1728,7 +1735,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3179</v>
       </c>
@@ -1736,15 +1743,18 @@
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>6333</v>
       </c>
       <c r="B107" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>6691</v>
       </c>
@@ -1754,56 +1764,77 @@
       <c r="C108" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>6616</v>
       </c>
       <c r="B109" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4401</v>
       </c>
       <c r="B110" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>6609</v>
       </c>
       <c r="B111" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3011</v>
       </c>
       <c r="B112" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4629</v>
       </c>
       <c r="B113" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>4637</v>
       </c>
       <c r="B114" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>6632</v>
       </c>
@@ -1813,8 +1844,11 @@
       <c r="C115" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>6692</v>
       </c>
@@ -1824,8 +1858,11 @@
       <c r="C116" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>6656</v>
       </c>
@@ -1835,8 +1872,11 @@
       <c r="C117" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>6662</v>
       </c>
@@ -1846,8 +1886,11 @@
       <c r="C118" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>6671</v>
       </c>
@@ -1857,8 +1900,11 @@
       <c r="C119" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>6630</v>
       </c>
@@ -1868,8 +1914,11 @@
       <c r="C120" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3152</v>
       </c>
@@ -1879,16 +1928,22 @@
       <c r="C121" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4628</v>
       </c>
       <c r="B122" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>6673</v>
       </c>
@@ -1898,8 +1953,11 @@
       <c r="C123" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4005</v>
       </c>
@@ -1909,8 +1967,11 @@
       <c r="C124" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6672</v>
       </c>
@@ -1920,8 +1981,11 @@
       <c r="C125" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6653</v>
       </c>
@@ -1931,8 +1995,11 @@
       <c r="C126" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6655</v>
       </c>
@@ -1942,16 +2009,22 @@
       <c r="C127" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>3222</v>
       </c>
       <c r="B128" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6617</v>
       </c>
@@ -1961,16 +2034,22 @@
       <c r="C129" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6675</v>
       </c>
       <c r="B130" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4636</v>
       </c>
@@ -1980,8 +2059,11 @@
       <c r="C131" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6693</v>
       </c>
@@ -1991,8 +2073,11 @@
       <c r="C132" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4633</v>
       </c>
@@ -2002,24 +2087,33 @@
       <c r="C133" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6695</v>
       </c>
       <c r="B134" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6694</v>
       </c>
       <c r="B135" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2065</v>
       </c>
@@ -2029,16 +2123,22 @@
       <c r="C136" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6035</v>
       </c>
       <c r="B137" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6631</v>
       </c>
@@ -2048,8 +2148,11 @@
       <c r="C138" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3068</v>
       </c>
@@ -2059,16 +2162,22 @@
       <c r="C139" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6676</v>
       </c>
       <c r="B140" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6664</v>
       </c>
@@ -2078,11 +2187,14 @@
       <c r="C141" t="s">
         <v>86</v>
       </c>
+      <c r="D141">
+        <v>10.23</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C106" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D141" xr:uid="{1A63ACE9-F265-484B-8CC2-21CC80D2DBB9}"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/private/ITEMS_1.xlsx
+++ b/private/ITEMS_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1384CC2E-34E2-4BF9-9D5F-B068EA056D52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A10CBD6-D2E5-42ED-BC11-0CE5B290DEC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25350" yWindow="105" windowWidth="26520" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25650" yWindow="1515" windowWidth="26520" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL_ITEMS" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BOOTS!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$D$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$E$141</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TRINKETS!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="142">
   <si>
     <t>Abyssal Mask</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>SincePatch</t>
+  </si>
+  <si>
+    <t>MythicItem</t>
   </si>
 </sst>
 </file>
@@ -832,7 +835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -845,9 +848,10 @@
     <col min="2" max="2" width="44.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -860,11 +864,14 @@
       <c r="D1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3001</v>
       </c>
@@ -875,7 +882,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3194</v>
       </c>
@@ -883,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3187</v>
       </c>
@@ -891,7 +898,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3003</v>
       </c>
@@ -899,7 +906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3504</v>
       </c>
@@ -907,7 +914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3174</v>
       </c>
@@ -915,7 +922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3060</v>
       </c>
@@ -923,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3102</v>
       </c>
@@ -931,7 +938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3006</v>
       </c>
@@ -939,7 +946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3864</v>
       </c>
@@ -947,7 +954,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3153</v>
       </c>
@@ -958,7 +965,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3860</v>
       </c>
@@ -966,7 +973,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3742</v>
       </c>
@@ -974,7 +981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3812</v>
       </c>
@@ -982,7 +989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3147</v>
       </c>
@@ -1121,7 +1128,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3031</v>
       </c>
@@ -1132,7 +1139,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3109</v>
       </c>
@@ -1140,7 +1147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3151</v>
       </c>
@@ -1148,7 +1155,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3100</v>
       </c>
@@ -1156,7 +1163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3190</v>
       </c>
@@ -1166,8 +1173,11 @@
       <c r="C37" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3036</v>
       </c>
@@ -1175,7 +1185,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3104</v>
       </c>
@@ -1183,7 +1193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3285</v>
       </c>
@@ -1194,7 +1204,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3004</v>
       </c>
@@ -1202,7 +1212,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3156</v>
       </c>
@@ -1210,7 +1220,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3041</v>
       </c>
@@ -1218,7 +1228,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3139</v>
       </c>
@@ -1226,7 +1236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3222</v>
       </c>
@@ -1234,7 +1244,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3170</v>
       </c>
@@ -1242,7 +1252,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3165</v>
       </c>
@@ -1250,7 +1260,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3033</v>
       </c>
@@ -1392,7 +1402,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3853</v>
       </c>
@@ -1400,7 +1410,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3087</v>
       </c>
@@ -1408,7 +1418,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3053</v>
       </c>
@@ -1416,7 +1426,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3068</v>
       </c>
@@ -1427,7 +1437,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3069</v>
       </c>
@@ -1435,7 +1445,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3071</v>
       </c>
@@ -1446,7 +1456,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3072</v>
       </c>
@@ -1454,7 +1464,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3185</v>
       </c>
@@ -1462,7 +1472,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3075</v>
       </c>
@@ -1470,7 +1480,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3748</v>
       </c>
@@ -1478,7 +1488,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3078</v>
       </c>
@@ -1488,8 +1498,11 @@
       <c r="C75" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3135</v>
       </c>
@@ -1497,7 +1510,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3083</v>
       </c>
@@ -1505,7 +1518,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3091</v>
       </c>
@@ -1513,7 +1526,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3090</v>
       </c>
@@ -1521,7 +1534,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3142</v>
       </c>
@@ -1663,7 +1676,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3671</v>
       </c>
@@ -1671,7 +1684,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1412</v>
       </c>
@@ -1679,7 +1692,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1408</v>
       </c>
@@ -1687,7 +1700,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3907</v>
       </c>
@@ -1695,7 +1708,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3905</v>
       </c>
@@ -1703,7 +1716,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2065</v>
       </c>
@@ -1711,7 +1724,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3095</v>
       </c>
@@ -1719,7 +1732,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3161</v>
       </c>
@@ -1727,7 +1740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3181</v>
       </c>
@@ -1735,7 +1748,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3179</v>
       </c>
@@ -1743,7 +1756,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>6333</v>
       </c>
@@ -1754,7 +1767,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>6691</v>
       </c>
@@ -1767,8 +1780,11 @@
       <c r="D108">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>6616</v>
       </c>
@@ -1779,7 +1795,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4401</v>
       </c>
@@ -1790,7 +1806,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>6609</v>
       </c>
@@ -1801,7 +1817,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3011</v>
       </c>
@@ -1812,7 +1828,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4629</v>
       </c>
@@ -1823,7 +1839,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>4637</v>
       </c>
@@ -1834,7 +1850,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>6632</v>
       </c>
@@ -1847,8 +1863,11 @@
       <c r="D115">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>6692</v>
       </c>
@@ -1861,8 +1880,11 @@
       <c r="D116">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>6656</v>
       </c>
@@ -1875,8 +1897,11 @@
       <c r="D117">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>6662</v>
       </c>
@@ -1889,8 +1914,11 @@
       <c r="D118">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>6671</v>
       </c>
@@ -1903,8 +1931,11 @@
       <c r="D119">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>6630</v>
       </c>
@@ -1917,8 +1948,11 @@
       <c r="D120">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3152</v>
       </c>
@@ -1931,8 +1965,11 @@
       <c r="D121">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4628</v>
       </c>
@@ -1943,7 +1980,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>6673</v>
       </c>
@@ -1956,8 +1993,11 @@
       <c r="D123">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4005</v>
       </c>
@@ -1970,8 +2010,11 @@
       <c r="D124">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6672</v>
       </c>
@@ -1984,8 +2027,11 @@
       <c r="D125">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6653</v>
       </c>
@@ -1998,8 +2044,11 @@
       <c r="D126">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6655</v>
       </c>
@@ -2012,8 +2061,11 @@
       <c r="D127">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>3222</v>
       </c>
@@ -2024,7 +2076,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6617</v>
       </c>
@@ -2037,8 +2089,11 @@
       <c r="D129">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6675</v>
       </c>
@@ -2049,7 +2104,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4636</v>
       </c>
@@ -2062,8 +2117,11 @@
       <c r="D131">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6693</v>
       </c>
@@ -2076,8 +2134,11 @@
       <c r="D132">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4633</v>
       </c>
@@ -2090,8 +2151,11 @@
       <c r="D133">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6695</v>
       </c>
@@ -2102,7 +2166,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6694</v>
       </c>
@@ -2113,7 +2177,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2065</v>
       </c>
@@ -2126,8 +2190,11 @@
       <c r="D136">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6035</v>
       </c>
@@ -2138,7 +2205,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6631</v>
       </c>
@@ -2151,8 +2218,11 @@
       <c r="D138">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3068</v>
       </c>
@@ -2165,8 +2235,11 @@
       <c r="D139">
         <v>10.23</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6676</v>
       </c>
@@ -2177,7 +2250,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6664</v>
       </c>
@@ -2190,11 +2263,14 @@
       <c r="D141">
         <v>10.23</v>
       </c>
+      <c r="E141" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D141" xr:uid="{1A63ACE9-F265-484B-8CC2-21CC80D2DBB9}"/>
+  <autoFilter ref="A1:E141" xr:uid="{2CDD4E40-A9C7-4592-85C8-7AD81D27CB16}"/>
   <hyperlinks>
-    <hyperlink ref="F1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/private/ITEMS_1.xlsx
+++ b/private/ITEMS_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A10CBD6-D2E5-42ED-BC11-0CE5B290DEC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A72899-966F-4922-A8CA-C118C6BB60DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25650" yWindow="1515" windowWidth="26520" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28665" yWindow="0" windowWidth="20835" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL_ITEMS" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BOOTS!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$E$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$E$166</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TRINKETS!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="175">
   <si>
     <t>Abyssal Mask</t>
   </si>
@@ -464,6 +464,105 @@
   </si>
   <si>
     <t>MythicItem</t>
+  </si>
+  <si>
+    <t>Deicide</t>
+  </si>
+  <si>
+    <t>11.10</t>
+  </si>
+  <si>
+    <t>Sandshrike's Claw</t>
+  </si>
+  <si>
+    <t>Syzygy</t>
+  </si>
+  <si>
+    <t>Draktharr's Shadowcarver</t>
+  </si>
+  <si>
+    <t>Turbocharged Hexperiment</t>
+  </si>
+  <si>
+    <t>Forgefire Crest</t>
+  </si>
+  <si>
+    <t>Rimeforged Grasp</t>
+  </si>
+  <si>
+    <t>Typhoon</t>
+  </si>
+  <si>
+    <t>Wyrmfallen Sacrifice</t>
+  </si>
+  <si>
+    <t>Bloodward</t>
+  </si>
+  <si>
+    <t>Icathia's Curse</t>
+  </si>
+  <si>
+    <t>Vespertide</t>
+  </si>
+  <si>
+    <t>Upgraded Aeropack</t>
+  </si>
+  <si>
+    <t>Liandry's Lament</t>
+  </si>
+  <si>
+    <t>Eye of Luden</t>
+  </si>
+  <si>
+    <t>Eternal Winter</t>
+  </si>
+  <si>
+    <t>Ceaseless Hunger</t>
+  </si>
+  <si>
+    <t>Dreamshatter</t>
+  </si>
+  <si>
+    <t>Infinity Force</t>
+  </si>
+  <si>
+    <t>Reliquary of the Golden Dawn</t>
+  </si>
+  <si>
+    <t>Shurelya's Requiem</t>
+  </si>
+  <si>
+    <t>Starcaster</t>
+  </si>
+  <si>
+    <t>Seat of Command</t>
+  </si>
+  <si>
+    <t>Anathema's Chains</t>
+  </si>
+  <si>
+    <t>Hullbreaker</t>
+  </si>
+  <si>
+    <t>Deprecated with patch 11.13</t>
+  </si>
+  <si>
+    <t>Crown of the Shattered Queen</t>
+  </si>
+  <si>
+    <t>Axiom Arc</t>
+  </si>
+  <si>
+    <t>Shadowflame</t>
+  </si>
+  <si>
+    <t>Winter's Approach</t>
+  </si>
+  <si>
+    <t>Fimbulwinter</t>
+  </si>
+  <si>
+    <t>Evenshroud</t>
   </si>
 </sst>
 </file>
@@ -516,10 +615,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -835,11 +937,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,6 +1849,9 @@
       <c r="B105" t="s">
         <v>101</v>
       </c>
+      <c r="C105" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
@@ -2267,8 +2372,493 @@
         <v>1</v>
       </c>
     </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>7000</v>
+      </c>
+      <c r="B142" t="s">
+        <v>144</v>
+      </c>
+      <c r="C142" t="s">
+        <v>86</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>7001</v>
+      </c>
+      <c r="B143" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143" t="s">
+        <v>86</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>7002</v>
+      </c>
+      <c r="B144" t="s">
+        <v>146</v>
+      </c>
+      <c r="C144" t="s">
+        <v>86</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>7003</v>
+      </c>
+      <c r="B145" t="s">
+        <v>147</v>
+      </c>
+      <c r="C145" t="s">
+        <v>86</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>7004</v>
+      </c>
+      <c r="B146" t="s">
+        <v>148</v>
+      </c>
+      <c r="C146" t="s">
+        <v>86</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>7005</v>
+      </c>
+      <c r="B147" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" t="s">
+        <v>86</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>7006</v>
+      </c>
+      <c r="B148" t="s">
+        <v>150</v>
+      </c>
+      <c r="C148" t="s">
+        <v>86</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>7007</v>
+      </c>
+      <c r="B149" t="s">
+        <v>151</v>
+      </c>
+      <c r="C149" t="s">
+        <v>86</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>7008</v>
+      </c>
+      <c r="B150" t="s">
+        <v>152</v>
+      </c>
+      <c r="C150" t="s">
+        <v>86</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>7009</v>
+      </c>
+      <c r="B151" t="s">
+        <v>153</v>
+      </c>
+      <c r="C151" t="s">
+        <v>86</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>7010</v>
+      </c>
+      <c r="B152" t="s">
+        <v>154</v>
+      </c>
+      <c r="C152" t="s">
+        <v>86</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>7011</v>
+      </c>
+      <c r="B153" t="s">
+        <v>155</v>
+      </c>
+      <c r="C153" t="s">
+        <v>86</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>7012</v>
+      </c>
+      <c r="B154" t="s">
+        <v>156</v>
+      </c>
+      <c r="C154" t="s">
+        <v>86</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>7013</v>
+      </c>
+      <c r="B155" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" t="s">
+        <v>86</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>7014</v>
+      </c>
+      <c r="B156" t="s">
+        <v>158</v>
+      </c>
+      <c r="C156" t="s">
+        <v>86</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>7015</v>
+      </c>
+      <c r="B157" t="s">
+        <v>159</v>
+      </c>
+      <c r="C157" t="s">
+        <v>86</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>7016</v>
+      </c>
+      <c r="B158" t="s">
+        <v>160</v>
+      </c>
+      <c r="C158" t="s">
+        <v>86</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>7017</v>
+      </c>
+      <c r="B159" t="s">
+        <v>142</v>
+      </c>
+      <c r="C159" t="s">
+        <v>86</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>7018</v>
+      </c>
+      <c r="B160" t="s">
+        <v>161</v>
+      </c>
+      <c r="C160" t="s">
+        <v>86</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>7019</v>
+      </c>
+      <c r="B161" t="s">
+        <v>162</v>
+      </c>
+      <c r="C161" t="s">
+        <v>86</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>7020</v>
+      </c>
+      <c r="B162" t="s">
+        <v>163</v>
+      </c>
+      <c r="C162" t="s">
+        <v>86</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>7021</v>
+      </c>
+      <c r="B163" t="s">
+        <v>164</v>
+      </c>
+      <c r="C163" t="s">
+        <v>86</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>7022</v>
+      </c>
+      <c r="B164" t="s">
+        <v>165</v>
+      </c>
+      <c r="C164" t="s">
+        <v>86</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>8001</v>
+      </c>
+      <c r="B165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D165">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>3181</v>
+      </c>
+      <c r="B166" t="s">
+        <v>167</v>
+      </c>
+      <c r="D166">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>4644</v>
+      </c>
+      <c r="B167" t="s">
+        <v>169</v>
+      </c>
+      <c r="D167">
+        <v>11.23</v>
+      </c>
+      <c r="E167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>6696</v>
+      </c>
+      <c r="B168" t="s">
+        <v>170</v>
+      </c>
+      <c r="D168">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>4645</v>
+      </c>
+      <c r="B169" t="s">
+        <v>171</v>
+      </c>
+      <c r="D169">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>3119</v>
+      </c>
+      <c r="B170" t="s">
+        <v>172</v>
+      </c>
+      <c r="D170">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>3121</v>
+      </c>
+      <c r="B171" t="s">
+        <v>173</v>
+      </c>
+      <c r="D171">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>3001</v>
+      </c>
+      <c r="B172" t="s">
+        <v>174</v>
+      </c>
+      <c r="D172">
+        <v>11.23</v>
+      </c>
+      <c r="E172" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E141" xr:uid="{2CDD4E40-A9C7-4592-85C8-7AD81D27CB16}"/>
+  <autoFilter ref="A1:E166" xr:uid="{2CDD4E40-A9C7-4592-85C8-7AD81D27CB16}"/>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>

--- a/private/ITEMS_1.xlsx
+++ b/private/ITEMS_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A72899-966F-4922-A8CA-C118C6BB60DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43E36D7-07B6-470E-B2C7-D02EE014F07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="0" windowWidth="20835" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8115" yWindow="870" windowWidth="26670" windowHeight="18795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL_ITEMS" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BOOTS!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$E$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$E$172</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TRINKETS!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +30,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -940,8 +944,8 @@
   <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,6 +987,9 @@
       <c r="C2" t="s">
         <v>86</v>
       </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1099,7 +1106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3814</v>
       </c>
@@ -1107,7 +1114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3508</v>
       </c>
@@ -1115,7 +1122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2303</v>
       </c>
@@ -1123,7 +1130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2302</v>
       </c>
@@ -1131,7 +1138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2301</v>
       </c>
@@ -1139,7 +1146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3401</v>
       </c>
@@ -1147,7 +1154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3092</v>
       </c>
@@ -1155,7 +1162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3110</v>
       </c>
@@ -1163,7 +1170,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3022</v>
       </c>
@@ -1171,7 +1178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3193</v>
       </c>
@@ -1179,7 +1186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3026</v>
       </c>
@@ -1187,7 +1194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3124</v>
       </c>
@@ -1195,7 +1202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3030</v>
       </c>
@@ -1203,7 +1210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3146</v>
       </c>
@@ -1211,15 +1218,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3152</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3025</v>
       </c>
@@ -1538,6 +1548,9 @@
       <c r="C68" t="s">
         <v>86</v>
       </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -1825,6 +1838,9 @@
       <c r="B102" t="s">
         <v>98</v>
       </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
@@ -2858,7 +2874,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E166" xr:uid="{2CDD4E40-A9C7-4592-85C8-7AD81D27CB16}"/>
+  <autoFilter ref="A1:E172" xr:uid="{2CDD4E40-A9C7-4592-85C8-7AD81D27CB16}"/>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>

--- a/private/ITEMS_1.xlsx
+++ b/private/ITEMS_1.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43E36D7-07B6-470E-B2C7-D02EE014F07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FA22A5-C5E3-4B8E-BCEE-46D64AB342D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8115" yWindow="870" windowWidth="26670" windowHeight="18795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5010" yWindow="4215" windowWidth="21015" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL_ITEMS" sheetId="3" r:id="rId1"/>
-    <sheet name="BOOTS" sheetId="4" r:id="rId2"/>
-    <sheet name="TRINKETS" sheetId="5" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="7" r:id="rId2"/>
+    <sheet name="BOOTS" sheetId="4" r:id="rId3"/>
+    <sheet name="TRINKETS" sheetId="5" r:id="rId4"/>
+    <sheet name="_SOURCES" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BOOTS!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$E$172</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TRINKETS!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">_SOURCES!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BOOTS!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$E$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TRINKETS!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,10 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="175">
-  <si>
-    <t>Abyssal Mask</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="209">
   <si>
     <t>Adaptive Helm</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Hextech Gunblade</t>
   </si>
   <si>
-    <t>Hextech Protobelt-01</t>
-  </si>
-  <si>
     <t>Iceborn Gauntlet</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
     <t>Sterak's Gage</t>
   </si>
   <si>
-    <t>Sunfire Cape</t>
-  </si>
-  <si>
     <t>Talisman of Ascension</t>
   </si>
   <si>
@@ -308,9 +302,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>http://leagueoflegends.wikia.com/wiki/Finished_item</t>
-  </si>
-  <si>
     <t>yellow</t>
   </si>
   <si>
@@ -338,9 +329,6 @@
     <t>Twin Shadows</t>
   </si>
   <si>
-    <t>Shurelya's Reverie</t>
-  </si>
-  <si>
     <t>Stormrazor</t>
   </si>
   <si>
@@ -567,13 +555,130 @@
   </si>
   <si>
     <t>Evenshroud</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>FiddleSticks</t>
+  </si>
+  <si>
+    <t>Scarecrow Effigy</t>
+  </si>
+  <si>
+    <t>Stealth Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farsight Alteration </t>
+  </si>
+  <si>
+    <t>Oracle Lens</t>
+  </si>
+  <si>
+    <t>Stirring Wardstone</t>
+  </si>
+  <si>
+    <t>Eye of the Herald</t>
+  </si>
+  <si>
+    <t>Caesura</t>
+  </si>
+  <si>
+    <t>Equinox</t>
+  </si>
+  <si>
+    <t>12.7</t>
+  </si>
+  <si>
+    <t>https://leagueoflegends.fandom.com/wiki/Ornn/LoL#Living_Forge</t>
+  </si>
+  <si>
+    <t>https://leagueoflegends.fandom.com/wiki/Legendary_item</t>
+  </si>
+  <si>
+    <t>Legendary Items</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>https://leagueoflegends.fandom.com/wiki/Mythic_item</t>
+  </si>
+  <si>
+    <t>Mythic Items</t>
+  </si>
+  <si>
+    <t>Masterwork Items</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Heartsteel</t>
+  </si>
+  <si>
+    <t>Radiant Virtue</t>
+  </si>
+  <si>
+    <t>Ornn</t>
+  </si>
+  <si>
+    <t>Frozen Fist</t>
+  </si>
+  <si>
+    <t>Leviathan</t>
+  </si>
+  <si>
+    <t>The Unspoken Parasite</t>
+  </si>
+  <si>
+    <t>Primordial Dawn</t>
+  </si>
+  <si>
+    <t>Infinite Convergence</t>
+  </si>
+  <si>
+    <t>Jak'Sho, The Protean</t>
+  </si>
+  <si>
+    <t>Deprecated with patch 10.23</t>
+  </si>
+  <si>
+    <t>12.22</t>
+  </si>
+  <si>
+    <t>11.13</t>
+  </si>
+  <si>
+    <t>13.10</t>
+  </si>
+  <si>
+    <t>Echoes of Helia</t>
+  </si>
+  <si>
+    <t>Seething Sorrow</t>
+  </si>
+  <si>
+    <t>Youmuu's Wake</t>
+  </si>
+  <si>
+    <t>Edge of Finality</t>
+  </si>
+  <si>
+    <t>Flicker</t>
+  </si>
+  <si>
+    <t>Cry of the Shrieking City</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,6 +702,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -619,17 +730,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -645,7 +764,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -941,182 +1060,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="44.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>140</v>
+      <c r="D1" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1400</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1401</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1402</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1408</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1409</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1410</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1412</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1413</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1414</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1416</v>
+      </c>
+      <c r="B11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3194</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3187</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3003</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3504</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3174</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3060</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3102</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3006</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3864</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3153</v>
+        <v>1418</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3860</v>
+        <v>1419</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3742</v>
+        <v>2045</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3812</v>
+        <v>2065</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="D15" s="5">
+        <v>10.23</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3147</v>
+        <v>2301</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>3814</v>
+        <v>2302</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3508</v>
+        <v>2303</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -1124,47 +1273,56 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2303</v>
+        <v>3001</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>169</v>
+      </c>
+      <c r="D19" s="5">
+        <v>11.23</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2302</v>
+        <v>3003</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2301</v>
+        <v>3004</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3401</v>
+        <v>3006</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3092</v>
+        <v>3011</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>105</v>
+      </c>
+      <c r="D23" s="5">
+        <v>10.23</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3110</v>
+        <v>3022</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -1172,15 +1330,15 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3022</v>
+        <v>3025</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>3193</v>
+        <v>3026</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -1188,15 +1346,15 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>3124</v>
+        <v>3030</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -1204,818 +1362,767 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>3146</v>
+        <v>3033</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>3152</v>
+        <v>3036</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" t="b">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>3025</v>
+        <v>3041</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3031</v>
+        <v>3046</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>3109</v>
+        <v>3050</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>3151</v>
+        <v>3053</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>3100</v>
+        <v>3056</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>3190</v>
+        <v>3060</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>3036</v>
+        <v>3065</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>3104</v>
+        <v>3068</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>132</v>
+      </c>
+      <c r="D39" s="5">
+        <v>10.23</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>3285</v>
+        <v>3069</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>3004</v>
+        <v>3071</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>3156</v>
+        <v>3072</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>3041</v>
+        <v>3074</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>3139</v>
+        <v>3075</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>3222</v>
+        <v>3078</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>71</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>3170</v>
+        <v>3083</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>3165</v>
+        <v>3084</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>190</v>
+      </c>
+      <c r="D47" s="5">
+        <v>12.22</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>3033</v>
+        <v>3085</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>3115</v>
+        <v>3087</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>3056</v>
+        <v>3089</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>3857</v>
+        <v>3090</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>3198</v>
+        <v>3091</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>3046</v>
+        <v>3092</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>3089</v>
+        <v>3094</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
       </c>
-      <c r="C54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>3143</v>
+        <v>3095</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>3094</v>
+        <v>3100</v>
       </c>
       <c r="B56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3102</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3104</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3107</v>
+      </c>
+      <c r="B59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>3074</v>
-      </c>
-      <c r="B57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>3107</v>
-      </c>
-      <c r="B58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>3800</v>
-      </c>
-      <c r="B59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>3027</v>
+        <v>3109</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2045</v>
+        <v>3110</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>3085</v>
+        <v>3115</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3116</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>3065</v>
+        <v>3119</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>167</v>
+      </c>
+      <c r="D64" s="5">
+        <v>11.23</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>3853</v>
+        <v>3121</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>168</v>
+      </c>
+      <c r="D65" s="5">
+        <v>11.23</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>3087</v>
+        <v>3124</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>3053</v>
+        <v>3135</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>3068</v>
+        <v>3139</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E68" t="b">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>3069</v>
+        <v>3142</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>3071</v>
+        <v>3143</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>3072</v>
+        <v>3146</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>3185</v>
+        <v>3147</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>3075</v>
+        <v>3151</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>3748</v>
+        <v>3152</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>114</v>
+      </c>
+      <c r="D74" s="5">
+        <v>10.23</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>3078</v>
+        <v>3153</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" t="s">
-        <v>86</v>
-      </c>
-      <c r="E75" t="b">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>3135</v>
+        <v>3156</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>3083</v>
+        <v>3157</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>3091</v>
+        <v>3161</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>3090</v>
+        <v>3165</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>3142</v>
+        <v>3170</v>
       </c>
       <c r="B80" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3174</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3179</v>
+      </c>
+      <c r="B82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3181</v>
+      </c>
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3181</v>
+      </c>
+      <c r="B84" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="5">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3185</v>
+      </c>
+      <c r="B85" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3187</v>
+      </c>
+      <c r="B86" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3190</v>
+      </c>
+      <c r="B87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3193</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>3194</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3198</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3222</v>
+      </c>
+      <c r="B91" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3222</v>
+      </c>
+      <c r="B92" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" s="5">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3285</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>3401</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>3504</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>3508</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>3512</v>
+      </c>
+      <c r="B97" t="s">
         <v>79</v>
       </c>
-      <c r="C80" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>3050</v>
-      </c>
-      <c r="B81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>3157</v>
-      </c>
-      <c r="B82" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>3512</v>
-      </c>
-      <c r="B83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>1419</v>
-      </c>
-      <c r="B84" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>3671</v>
+      </c>
+      <c r="B98" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3672</v>
+      </c>
+      <c r="B99" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3673</v>
+      </c>
+      <c r="B100" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>3675</v>
+      </c>
+      <c r="B101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>3742</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3748</v>
+      </c>
+      <c r="B103" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>3800</v>
+      </c>
+      <c r="B104" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>3812</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>3814</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>3853</v>
+      </c>
+      <c r="B107" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>3857</v>
+      </c>
+      <c r="B108" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>3860</v>
+      </c>
+      <c r="B109" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>3864</v>
+      </c>
+      <c r="B110" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>3905</v>
+      </c>
+      <c r="B111" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>3907</v>
+      </c>
+      <c r="B112" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>1418</v>
-      </c>
-      <c r="B85" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>3675</v>
-      </c>
-      <c r="B86" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>1416</v>
-      </c>
-      <c r="B87" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>1409</v>
-      </c>
-      <c r="B88" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>1401</v>
-      </c>
-      <c r="B89" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>3672</v>
-      </c>
-      <c r="B90" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>1413</v>
-      </c>
-      <c r="B91" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>1414</v>
-      </c>
-      <c r="B92" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>1410</v>
-      </c>
-      <c r="B93" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>3673</v>
-      </c>
-      <c r="B94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>1402</v>
-      </c>
-      <c r="B95" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>1400</v>
-      </c>
-      <c r="B96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>3671</v>
-      </c>
-      <c r="B97" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>1412</v>
-      </c>
-      <c r="B98" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>1408</v>
-      </c>
-      <c r="B99" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>3907</v>
-      </c>
-      <c r="B100" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>3905</v>
-      </c>
-      <c r="B101" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>2065</v>
-      </c>
-      <c r="B102" t="s">
-        <v>98</v>
-      </c>
-      <c r="E102" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>3095</v>
-      </c>
-      <c r="B103" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>3161</v>
-      </c>
-      <c r="B104" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>3181</v>
-      </c>
-      <c r="B105" t="s">
-        <v>101</v>
-      </c>
-      <c r="C105" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>3179</v>
-      </c>
-      <c r="B106" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>6333</v>
-      </c>
-      <c r="B107" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107">
-        <v>10.23</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>6691</v>
-      </c>
-      <c r="B108" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" t="s">
-        <v>86</v>
-      </c>
-      <c r="D108">
-        <v>10.23</v>
-      </c>
-      <c r="E108" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>6616</v>
-      </c>
-      <c r="B109" t="s">
-        <v>107</v>
-      </c>
-      <c r="D109">
-        <v>10.23</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>4401</v>
-      </c>
-      <c r="B110" t="s">
-        <v>108</v>
-      </c>
-      <c r="D110">
-        <v>10.23</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>6609</v>
-      </c>
-      <c r="B111" t="s">
-        <v>109</v>
-      </c>
-      <c r="D111">
-        <v>10.23</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>3011</v>
-      </c>
-      <c r="B112" t="s">
-        <v>110</v>
-      </c>
-      <c r="D112">
-        <v>10.23</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>4629</v>
+        <v>4005</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
-      </c>
-      <c r="D113">
-        <v>10.23</v>
+        <v>117</v>
+      </c>
+      <c r="D113" s="5">
+        <v>10.23</v>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>4637</v>
+        <v>4401</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
-      </c>
-      <c r="D114">
+        <v>103</v>
+      </c>
+      <c r="D114" s="5">
         <v>10.23</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>6632</v>
+        <v>4628</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
-      </c>
-      <c r="C115" t="s">
-        <v>86</v>
-      </c>
-      <c r="D115">
-        <v>10.23</v>
-      </c>
-      <c r="E115" t="b">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="D115" s="5">
+        <v>10.23</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>6692</v>
+        <v>4629</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
-      </c>
-      <c r="C116" t="s">
-        <v>86</v>
-      </c>
-      <c r="D116">
-        <v>10.23</v>
-      </c>
-      <c r="E116" t="b">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="D116" s="5">
+        <v>10.23</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>6656</v>
+        <v>4633</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
-      </c>
-      <c r="C117" t="s">
-        <v>86</v>
-      </c>
-      <c r="D117">
+        <v>126</v>
+      </c>
+      <c r="D117" s="5">
         <v>10.23</v>
       </c>
       <c r="E117" t="b">
@@ -2024,15 +2131,12 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>6662</v>
+        <v>4636</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
-      </c>
-      <c r="C118" t="s">
-        <v>86</v>
-      </c>
-      <c r="D118">
+        <v>124</v>
+      </c>
+      <c r="D118" s="5">
         <v>10.23</v>
       </c>
       <c r="E118" t="b">
@@ -2041,33 +2145,24 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>6671</v>
+        <v>4637</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
-      </c>
-      <c r="C119" t="s">
-        <v>86</v>
-      </c>
-      <c r="D119">
-        <v>10.23</v>
-      </c>
-      <c r="E119" t="b">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="D119" s="5">
+        <v>10.23</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>6630</v>
+        <v>4644</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
-      </c>
-      <c r="C120" t="s">
-        <v>86</v>
-      </c>
-      <c r="D120">
-        <v>10.23</v>
+        <v>164</v>
+      </c>
+      <c r="D120" s="5">
+        <v>11.23</v>
       </c>
       <c r="E120" t="b">
         <v>1</v>
@@ -2075,94 +2170,67 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>3152</v>
+        <v>4645</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
-      </c>
-      <c r="C121" t="s">
-        <v>86</v>
-      </c>
-      <c r="D121">
-        <v>10.23</v>
-      </c>
-      <c r="E121" t="b">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="D121" s="5">
+        <v>11.23</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>4628</v>
+        <v>6035</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
-      </c>
-      <c r="D122">
+        <v>130</v>
+      </c>
+      <c r="D122" s="5">
         <v>10.23</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>6673</v>
+        <v>6333</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
-      </c>
-      <c r="C123" t="s">
-        <v>86</v>
-      </c>
-      <c r="D123">
-        <v>10.23</v>
-      </c>
-      <c r="E123" t="b">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D123" s="5">
+        <v>10.23</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>4005</v>
+        <v>6609</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
-      </c>
-      <c r="C124" t="s">
-        <v>86</v>
-      </c>
-      <c r="D124">
-        <v>10.23</v>
-      </c>
-      <c r="E124" t="b">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="D124" s="5">
+        <v>10.23</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>6672</v>
+        <v>6616</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
-      </c>
-      <c r="C125" t="s">
-        <v>86</v>
-      </c>
-      <c r="D125">
-        <v>10.23</v>
-      </c>
-      <c r="E125" t="b">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="D125" s="5">
+        <v>10.23</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>6653</v>
+        <v>6617</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
-      </c>
-      <c r="C126" t="s">
-        <v>86</v>
-      </c>
-      <c r="D126">
+        <v>122</v>
+      </c>
+      <c r="D126" s="5">
         <v>10.23</v>
       </c>
       <c r="E126" t="b">
@@ -2171,15 +2239,12 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>6655</v>
+        <v>6630</v>
       </c>
       <c r="B127" t="s">
-        <v>125</v>
-      </c>
-      <c r="C127" t="s">
-        <v>86</v>
-      </c>
-      <c r="D127">
+        <v>113</v>
+      </c>
+      <c r="D127" s="5">
         <v>10.23</v>
       </c>
       <c r="E127" t="b">
@@ -2188,26 +2253,26 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>3222</v>
+        <v>6631</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
-      </c>
-      <c r="D128">
-        <v>10.23</v>
+        <v>131</v>
+      </c>
+      <c r="D128" s="5">
+        <v>10.23</v>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>6617</v>
+        <v>6632</v>
       </c>
       <c r="B129" t="s">
-        <v>127</v>
-      </c>
-      <c r="C129" t="s">
-        <v>86</v>
-      </c>
-      <c r="D129">
+        <v>108</v>
+      </c>
+      <c r="D129" s="5">
         <v>10.23</v>
       </c>
       <c r="E129" t="b">
@@ -2216,26 +2281,26 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>6675</v>
+        <v>6653</v>
       </c>
       <c r="B130" t="s">
-        <v>128</v>
-      </c>
-      <c r="D130">
-        <v>10.23</v>
+        <v>119</v>
+      </c>
+      <c r="D130" s="5">
+        <v>10.23</v>
+      </c>
+      <c r="E130" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>4636</v>
+        <v>6655</v>
       </c>
       <c r="B131" t="s">
-        <v>129</v>
-      </c>
-      <c r="C131" t="s">
-        <v>86</v>
-      </c>
-      <c r="D131">
+        <v>120</v>
+      </c>
+      <c r="D131" s="5">
         <v>10.23</v>
       </c>
       <c r="E131" t="b">
@@ -2244,15 +2309,12 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>6693</v>
+        <v>6656</v>
       </c>
       <c r="B132" t="s">
-        <v>130</v>
-      </c>
-      <c r="C132" t="s">
-        <v>86</v>
-      </c>
-      <c r="D132">
+        <v>110</v>
+      </c>
+      <c r="D132" s="5">
         <v>10.23</v>
       </c>
       <c r="E132" t="b">
@@ -2261,16 +2323,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>4633</v>
+        <v>6657</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
-      </c>
-      <c r="C133" t="s">
-        <v>86</v>
-      </c>
-      <c r="D133">
-        <v>10.23</v>
+        <v>57</v>
+      </c>
+      <c r="D133" s="5">
+        <v>12.22</v>
       </c>
       <c r="E133" t="b">
         <v>1</v>
@@ -2278,38 +2337,38 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>6695</v>
+        <v>6662</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
-      </c>
-      <c r="D134">
-        <v>10.23</v>
+        <v>111</v>
+      </c>
+      <c r="D134" s="5">
+        <v>10.23</v>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>6694</v>
+        <v>6664</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
-      </c>
-      <c r="D135">
+        <v>134</v>
+      </c>
+      <c r="D135" s="5">
         <v>10.23</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>2065</v>
+        <v>6665</v>
       </c>
       <c r="B136" t="s">
-        <v>134</v>
-      </c>
-      <c r="C136" t="s">
-        <v>86</v>
-      </c>
-      <c r="D136">
-        <v>10.23</v>
+        <v>198</v>
+      </c>
+      <c r="D136" s="5">
+        <v>12.22</v>
       </c>
       <c r="E136" t="b">
         <v>1</v>
@@ -2317,26 +2376,26 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>6035</v>
+        <v>6667</v>
       </c>
       <c r="B137" t="s">
-        <v>135</v>
-      </c>
-      <c r="D137">
-        <v>10.23</v>
+        <v>191</v>
+      </c>
+      <c r="D137" s="5">
+        <v>12.22</v>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>6631</v>
+        <v>6671</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
-      </c>
-      <c r="C138" t="s">
-        <v>86</v>
-      </c>
-      <c r="D138">
+        <v>112</v>
+      </c>
+      <c r="D138" s="5">
         <v>10.23</v>
       </c>
       <c r="E138" t="b">
@@ -2345,15 +2404,12 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>3068</v>
+        <v>6672</v>
       </c>
       <c r="B139" t="s">
-        <v>137</v>
-      </c>
-      <c r="C139" t="s">
-        <v>86</v>
-      </c>
-      <c r="D139">
+        <v>118</v>
+      </c>
+      <c r="D139" s="5">
         <v>10.23</v>
       </c>
       <c r="E139" t="b">
@@ -2362,61 +2418,49 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>6676</v>
+        <v>6673</v>
       </c>
       <c r="B140" t="s">
-        <v>138</v>
-      </c>
-      <c r="D140">
-        <v>10.23</v>
+        <v>116</v>
+      </c>
+      <c r="D140" s="5">
+        <v>10.23</v>
+      </c>
+      <c r="E140" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>6664</v>
+        <v>6675</v>
       </c>
       <c r="B141" t="s">
-        <v>139</v>
-      </c>
-      <c r="C141" t="s">
-        <v>86</v>
-      </c>
-      <c r="D141">
-        <v>10.23</v>
-      </c>
-      <c r="E141" t="b">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="D141" s="5">
+        <v>10.23</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>7000</v>
+        <v>6676</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
-      </c>
-      <c r="C142" t="s">
-        <v>86</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E142" t="b">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="D142" s="5">
+        <v>10.23</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>7001</v>
+        <v>6691</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
-      </c>
-      <c r="C143" t="s">
-        <v>86</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>143</v>
+        <v>12</v>
+      </c>
+      <c r="D143" s="5">
+        <v>10.23</v>
       </c>
       <c r="E143" t="b">
         <v>1</v>
@@ -2424,16 +2468,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>7002</v>
+        <v>6692</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
-      </c>
-      <c r="C144" t="s">
-        <v>86</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>143</v>
+        <v>109</v>
+      </c>
+      <c r="D144" s="5">
+        <v>10.23</v>
       </c>
       <c r="E144" t="b">
         <v>1</v>
@@ -2441,16 +2482,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>7003</v>
+        <v>6693</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
-      </c>
-      <c r="C145" t="s">
-        <v>86</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>143</v>
+        <v>125</v>
+      </c>
+      <c r="D145" s="5">
+        <v>10.23</v>
       </c>
       <c r="E145" t="b">
         <v>1</v>
@@ -2458,67 +2496,49 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>7004</v>
+        <v>6694</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
-      </c>
-      <c r="C146" t="s">
-        <v>86</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E146" t="b">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="D146" s="5">
+        <v>10.23</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>7005</v>
+        <v>6695</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
-      </c>
-      <c r="C147" t="s">
-        <v>86</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E147" t="b">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="D147" s="5">
+        <v>10.23</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>7006</v>
+        <v>6696</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
-      </c>
-      <c r="C148" t="s">
-        <v>86</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E148" t="b">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="D148" s="5">
+        <v>11.23</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>7007</v>
+        <v>7000</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C149" t="s">
-        <v>86</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>143</v>
+        <v>83</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E149" t="b">
         <v>1</v>
@@ -2526,16 +2546,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>7008</v>
+        <v>7001</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C150" t="s">
-        <v>86</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>143</v>
+        <v>83</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E150" t="b">
         <v>1</v>
@@ -2543,16 +2563,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>7009</v>
+        <v>7002</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C151" t="s">
-        <v>86</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>143</v>
+        <v>83</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E151" t="b">
         <v>1</v>
@@ -2560,16 +2580,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>7010</v>
+        <v>7003</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C152" t="s">
-        <v>86</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>143</v>
+        <v>83</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E152" t="b">
         <v>1</v>
@@ -2577,16 +2597,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>7011</v>
+        <v>7004</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C153" t="s">
-        <v>86</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>143</v>
+        <v>83</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E153" t="b">
         <v>1</v>
@@ -2594,16 +2614,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>7012</v>
+        <v>7005</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C154" t="s">
-        <v>86</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>143</v>
+        <v>83</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E154" t="b">
         <v>1</v>
@@ -2611,16 +2631,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>7013</v>
+        <v>7006</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C155" t="s">
-        <v>86</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>143</v>
+        <v>83</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E155" t="b">
         <v>1</v>
@@ -2628,16 +2648,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>7014</v>
+        <v>7007</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C156" t="s">
-        <v>86</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>143</v>
+        <v>83</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E156" t="b">
         <v>1</v>
@@ -2645,16 +2665,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>7015</v>
+        <v>7008</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C157" t="s">
-        <v>86</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>143</v>
+        <v>83</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E157" t="b">
         <v>1</v>
@@ -2662,16 +2682,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>7016</v>
+        <v>7009</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C158" t="s">
-        <v>86</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>143</v>
+        <v>83</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E158" t="b">
         <v>1</v>
@@ -2679,16 +2699,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>7017</v>
+        <v>7010</v>
       </c>
       <c r="B159" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C159" t="s">
-        <v>86</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>143</v>
+        <v>83</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E159" t="b">
         <v>1</v>
@@ -2696,16 +2716,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>7018</v>
+        <v>7011</v>
       </c>
       <c r="B160" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C160" t="s">
-        <v>86</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>143</v>
+        <v>83</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E160" t="b">
         <v>1</v>
@@ -2713,16 +2733,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>7019</v>
+        <v>7012</v>
       </c>
       <c r="B161" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C161" t="s">
-        <v>86</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>143</v>
+        <v>83</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E161" t="b">
         <v>1</v>
@@ -2730,16 +2750,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>7020</v>
+        <v>7013</v>
       </c>
       <c r="B162" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C162" t="s">
-        <v>86</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>143</v>
+        <v>83</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E162" t="b">
         <v>1</v>
@@ -2747,16 +2767,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>7021</v>
+        <v>7014</v>
       </c>
       <c r="B163" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C163" t="s">
-        <v>86</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>143</v>
+        <v>83</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E163" t="b">
         <v>1</v>
@@ -2764,16 +2784,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>7022</v>
+        <v>7015</v>
       </c>
       <c r="B164" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C164" t="s">
-        <v>86</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>143</v>
+        <v>83</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E164" t="b">
         <v>1</v>
@@ -2781,35 +2801,50 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>8001</v>
+        <v>7016</v>
       </c>
       <c r="B165" t="s">
-        <v>166</v>
-      </c>
-      <c r="D165">
-        <v>11.13</v>
+        <v>155</v>
+      </c>
+      <c r="C165" t="s">
+        <v>83</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E165" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>3181</v>
+        <v>7017</v>
       </c>
       <c r="B166" t="s">
-        <v>167</v>
-      </c>
-      <c r="D166">
-        <v>11.13</v>
+        <v>137</v>
+      </c>
+      <c r="C166" t="s">
+        <v>83</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E166" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>4644</v>
+        <v>7018</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
-      </c>
-      <c r="D167">
-        <v>11.23</v>
+        <v>156</v>
+      </c>
+      <c r="C167" t="s">
+        <v>83</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E167" t="b">
         <v>1</v>
@@ -2817,72 +2852,2094 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>6696</v>
+        <v>7019</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
-      </c>
-      <c r="D168">
-        <v>11.23</v>
+        <v>157</v>
+      </c>
+      <c r="C168" t="s">
+        <v>83</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E168" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>4645</v>
+        <v>7020</v>
       </c>
       <c r="B169" t="s">
-        <v>171</v>
-      </c>
-      <c r="D169">
-        <v>11.23</v>
+        <v>158</v>
+      </c>
+      <c r="C169" t="s">
+        <v>83</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E169" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>3119</v>
+        <v>7021</v>
       </c>
       <c r="B170" t="s">
-        <v>172</v>
-      </c>
-      <c r="D170">
-        <v>11.23</v>
+        <v>159</v>
+      </c>
+      <c r="C170" t="s">
+        <v>83</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E170" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>3121</v>
+        <v>7022</v>
       </c>
       <c r="B171" t="s">
-        <v>173</v>
-      </c>
-      <c r="D171">
-        <v>11.23</v>
+        <v>160</v>
+      </c>
+      <c r="C171" t="s">
+        <v>83</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E171" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>3001</v>
+        <v>7023</v>
       </c>
       <c r="B172" t="s">
-        <v>174</v>
-      </c>
-      <c r="D172">
-        <v>11.23</v>
+        <v>179</v>
+      </c>
+      <c r="C172" t="s">
+        <v>83</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>7024</v>
+      </c>
+      <c r="B173" t="s">
+        <v>178</v>
+      </c>
+      <c r="C173" t="s">
+        <v>83</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>7025</v>
+      </c>
+      <c r="B174" t="s">
+        <v>194</v>
+      </c>
+      <c r="C174" t="s">
+        <v>83</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>7026</v>
+      </c>
+      <c r="B175" t="s">
+        <v>195</v>
+      </c>
+      <c r="C175" t="s">
+        <v>83</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>7027</v>
+      </c>
+      <c r="B176" t="s">
+        <v>196</v>
+      </c>
+      <c r="C176" t="s">
+        <v>83</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>7028</v>
+      </c>
+      <c r="B177" t="s">
+        <v>197</v>
+      </c>
+      <c r="C177" t="s">
+        <v>83</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>8001</v>
+      </c>
+      <c r="B178" t="s">
+        <v>161</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>3087</v>
+      </c>
+      <c r="B179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>6620</v>
+      </c>
+      <c r="B180" t="s">
+        <v>203</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E180" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>7029</v>
+      </c>
+      <c r="B181" t="s">
+        <v>205</v>
+      </c>
+      <c r="C181" t="s">
+        <v>83</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E181" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>7030</v>
+      </c>
+      <c r="B182" t="s">
+        <v>204</v>
+      </c>
+      <c r="C182" t="s">
+        <v>83</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>7031</v>
+      </c>
+      <c r="B183" t="s">
+        <v>206</v>
+      </c>
+      <c r="C183" t="s">
+        <v>83</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>7032</v>
+      </c>
+      <c r="B184" t="s">
+        <v>207</v>
+      </c>
+      <c r="C184" t="s">
+        <v>83</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E184" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>7033</v>
+      </c>
+      <c r="B185" t="s">
+        <v>208</v>
+      </c>
+      <c r="C185" t="s">
+        <v>83</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E185" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E172" xr:uid="{2CDD4E40-A9C7-4592-85C8-7AD81D27CB16}"/>
-  <hyperlinks>
-    <hyperlink ref="G1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
+  <autoFilter ref="A1:E178" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F1445A-E0DF-4AEA-B4E2-96C5AAB0B48A}">
+  <dimension ref="A1:K56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G31" sqref="C21:G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2065</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="b">
+        <f>VLOOKUP(A2,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <f>A2=G2</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2065</v>
+      </c>
+      <c r="H2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2">
+        <v>10.23</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" t="b">
+        <f>VLOOKUP(A3,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <f t="shared" ref="F3:F56" si="0">A3=G3</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3001</v>
+      </c>
+      <c r="H3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3">
+        <v>11.23</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3078</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" t="b">
+        <f>VLOOKUP(A4,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3078</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3084</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" t="b">
+        <f>VLOOKUP(A5,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3084</v>
+      </c>
+      <c r="H5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5">
+        <v>12.22</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" t="b">
+        <f>VLOOKUP(A6,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3152</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6">
+        <v>10.23</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3190</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" t="b">
+        <f>VLOOKUP(A7,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3190</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" t="b">
+        <f>VLOOKUP(A8,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4005</v>
+      </c>
+      <c r="H8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8">
+        <v>10.23</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4633</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" t="b">
+        <f>VLOOKUP(A9,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4633</v>
+      </c>
+      <c r="H9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9">
+        <v>10.23</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4636</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" t="b">
+        <f>VLOOKUP(A10,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4636</v>
+      </c>
+      <c r="H10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10">
+        <v>10.23</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4644</v>
+      </c>
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" t="b">
+        <f>VLOOKUP(A11,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4644</v>
+      </c>
+      <c r="H11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J11">
+        <v>11.23</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6617</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" t="b">
+        <f>VLOOKUP(A12,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6617</v>
+      </c>
+      <c r="H12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12">
+        <v>10.23</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6630</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" t="b">
+        <f>VLOOKUP(A13,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6630</v>
+      </c>
+      <c r="H13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13">
+        <v>10.23</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6631</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" t="b">
+        <f>VLOOKUP(A14,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6631</v>
+      </c>
+      <c r="H14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14">
+        <v>10.23</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6632</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" t="b">
+        <f>VLOOKUP(A15,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6632</v>
+      </c>
+      <c r="H15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15">
+        <v>10.23</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6653</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" t="b">
+        <f>VLOOKUP(A16,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6653</v>
+      </c>
+      <c r="H16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16">
+        <v>10.23</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6655</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" t="b">
+        <f>VLOOKUP(A17,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6655</v>
+      </c>
+      <c r="H17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17">
+        <v>10.23</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6656</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" t="b">
+        <f>VLOOKUP(A18,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6656</v>
+      </c>
+      <c r="H18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18">
+        <v>10.23</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6657</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" t="b">
+        <f>VLOOKUP(A19,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6657</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19">
+        <v>12.22</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6662</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" t="b">
+        <f>VLOOKUP(A20,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6662</v>
+      </c>
+      <c r="H20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20">
+        <v>10.23</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6665</v>
+      </c>
+      <c r="B21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" t="b">
+        <f>VLOOKUP(A21,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6665</v>
+      </c>
+      <c r="H21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21">
+        <v>12.22</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6667</v>
+      </c>
+      <c r="B22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" t="b">
+        <f>VLOOKUP(A22,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6667</v>
+      </c>
+      <c r="H22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22">
+        <v>12.22</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6671</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" t="b">
+        <f>VLOOKUP(A23,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6671</v>
+      </c>
+      <c r="H23" t="s">
+        <v>112</v>
+      </c>
+      <c r="J23">
+        <v>10.23</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6672</v>
+      </c>
+      <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" t="b">
+        <f>VLOOKUP(A24,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6672</v>
+      </c>
+      <c r="H24" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24">
+        <v>10.23</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6673</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" t="b">
+        <f>VLOOKUP(A25,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6673</v>
+      </c>
+      <c r="H25" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25">
+        <v>10.23</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6691</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" t="b">
+        <f>VLOOKUP(A26,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6691</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26">
+        <v>10.23</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>6692</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" t="b">
+        <f>VLOOKUP(A27,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>6692</v>
+      </c>
+      <c r="H27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27">
+        <v>10.23</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6693</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" t="b">
+        <f>VLOOKUP(A28,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>6693</v>
+      </c>
+      <c r="H28" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28">
+        <v>10.23</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" t="b">
+        <f>VLOOKUP(A29,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7000</v>
+      </c>
+      <c r="H29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" t="b">
+        <f>VLOOKUP(A30,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7001</v>
+      </c>
+      <c r="H30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>7002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" t="b">
+        <f>VLOOKUP(A31,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7002</v>
+      </c>
+      <c r="H31" t="s">
+        <v>141</v>
+      </c>
+      <c r="I31" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7005</v>
+      </c>
+      <c r="B32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" t="b">
+        <f>VLOOKUP(A32,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>7005</v>
+      </c>
+      <c r="H32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7006</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" t="b">
+        <f>VLOOKUP(A33,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>7006</v>
+      </c>
+      <c r="H33" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>7007</v>
+      </c>
+      <c r="B34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" t="b">
+        <f>VLOOKUP(A34,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>7007</v>
+      </c>
+      <c r="H34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7008</v>
+      </c>
+      <c r="B35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" t="b">
+        <f>VLOOKUP(A35,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>7008</v>
+      </c>
+      <c r="H35" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7009</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" t="b">
+        <f>VLOOKUP(A36,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>7009</v>
+      </c>
+      <c r="H36" t="s">
+        <v>148</v>
+      </c>
+      <c r="I36" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7010</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" t="b">
+        <f>VLOOKUP(A37,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>7010</v>
+      </c>
+      <c r="H37" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7011</v>
+      </c>
+      <c r="B38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" t="b">
+        <f>VLOOKUP(A38,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>7011</v>
+      </c>
+      <c r="H38" t="s">
+        <v>150</v>
+      </c>
+      <c r="I38" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>7012</v>
+      </c>
+      <c r="B39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" t="b">
+        <f>VLOOKUP(A39,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>7012</v>
+      </c>
+      <c r="H39" t="s">
+        <v>151</v>
+      </c>
+      <c r="I39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>7013</v>
+      </c>
+      <c r="B40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" t="b">
+        <f>VLOOKUP(A40,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>7013</v>
+      </c>
+      <c r="H40" t="s">
+        <v>152</v>
+      </c>
+      <c r="I40" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>7014</v>
+      </c>
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" t="s">
+        <v>192</v>
+      </c>
+      <c r="D41" t="b">
+        <f>VLOOKUP(A41,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F41" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>7014</v>
+      </c>
+      <c r="H41" t="s">
+        <v>153</v>
+      </c>
+      <c r="I41" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>7015</v>
+      </c>
+      <c r="B42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" t="b">
+        <f>VLOOKUP(A42,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>7015</v>
+      </c>
+      <c r="H42" t="s">
+        <v>154</v>
+      </c>
+      <c r="I42" t="s">
+        <v>83</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>7016</v>
+      </c>
+      <c r="B43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" t="b">
+        <f>VLOOKUP(A43,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F43" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>7016</v>
+      </c>
+      <c r="H43" t="s">
+        <v>155</v>
+      </c>
+      <c r="I43" t="s">
+        <v>83</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7017</v>
+      </c>
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" t="b">
+        <f>VLOOKUP(A44,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F44" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>7017</v>
+      </c>
+      <c r="H44" t="s">
+        <v>137</v>
+      </c>
+      <c r="I44" t="s">
+        <v>83</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>7018</v>
+      </c>
+      <c r="B45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" t="b">
+        <f>VLOOKUP(A45,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>7018</v>
+      </c>
+      <c r="H45" t="s">
+        <v>156</v>
+      </c>
+      <c r="I45" t="s">
+        <v>83</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>7019</v>
+      </c>
+      <c r="B46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" t="b">
+        <f>VLOOKUP(A46,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F46" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>7019</v>
+      </c>
+      <c r="H46" t="s">
+        <v>157</v>
+      </c>
+      <c r="I46" t="s">
+        <v>83</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>7020</v>
+      </c>
+      <c r="B47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" t="b">
+        <f>VLOOKUP(A47,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F47" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>7020</v>
+      </c>
+      <c r="H47" t="s">
+        <v>158</v>
+      </c>
+      <c r="I47" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>7021</v>
+      </c>
+      <c r="B48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" t="b">
+        <f>VLOOKUP(A48,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F48" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>7021</v>
+      </c>
+      <c r="H48" t="s">
+        <v>159</v>
+      </c>
+      <c r="I48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>7022</v>
+      </c>
+      <c r="B49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" t="b">
+        <f>VLOOKUP(A49,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F49" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>7022</v>
+      </c>
+      <c r="H49" t="s">
+        <v>160</v>
+      </c>
+      <c r="I49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>7023</v>
+      </c>
+      <c r="B50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" t="b">
+        <f>VLOOKUP(A50,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F50" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>7023</v>
+      </c>
+      <c r="H50" t="s">
+        <v>179</v>
+      </c>
+      <c r="I50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>7024</v>
+      </c>
+      <c r="B51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" t="b">
+        <f>VLOOKUP(A51,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>7024</v>
+      </c>
+      <c r="H51" t="s">
+        <v>178</v>
+      </c>
+      <c r="I51" t="s">
+        <v>83</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>7025</v>
+      </c>
+      <c r="B52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" t="b">
+        <f>VLOOKUP(A52,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F52" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>7025</v>
+      </c>
+      <c r="H52" t="s">
+        <v>194</v>
+      </c>
+      <c r="I52" t="s">
+        <v>83</v>
+      </c>
+      <c r="J52">
+        <v>12.22</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>7026</v>
+      </c>
+      <c r="B53" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" t="b">
+        <f>VLOOKUP(A53,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F53" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>7026</v>
+      </c>
+      <c r="H53" t="s">
+        <v>195</v>
+      </c>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+      <c r="J53">
+        <v>12.22</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>7027</v>
+      </c>
+      <c r="B54" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" t="b">
+        <f>VLOOKUP(A54,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F54" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>7027</v>
+      </c>
+      <c r="H54" t="s">
+        <v>196</v>
+      </c>
+      <c r="I54" t="s">
+        <v>83</v>
+      </c>
+      <c r="J54">
+        <v>12.22</v>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>7028</v>
+      </c>
+      <c r="B55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" t="b">
+        <f>VLOOKUP(A55,FINAL_ITEMS!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F55" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>7028</v>
+      </c>
+      <c r="H55" t="s">
+        <v>197</v>
+      </c>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+      <c r="J55">
+        <v>12.22</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="F56" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:K55">
+    <sortCondition ref="G2:G55"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -2891,17 +4948,17 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2909,7 +4966,7 @@
         <v>3117</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2917,7 +4974,7 @@
         <v>3009</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2925,7 +4982,7 @@
         <v>3158</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2933,7 +4990,7 @@
         <v>3006</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2941,7 +4998,7 @@
         <v>3047</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2949,7 +5006,7 @@
         <v>3111</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2957,7 +5014,7 @@
         <v>3020</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2966,62 +5023,152 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3340</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3363</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3364</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3341</v>
+        <v>3330</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>172</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4641</v>
+      </c>
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3513</v>
+      </c>
+      <c r="B7" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36584CBC-C5EF-42EA-8E92-782B9445AA7C}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{36584CBC-C5EF-42EA-8E92-782B9445AA7C}"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{66250A21-4556-48E4-95D4-848BE92F5674}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{B36671EA-F431-492B-B9AC-AFA01B454C6B}"/>
+    <hyperlink ref="B4" r:id="rId3" location="Living_Forge" xr:uid="{59A780D2-C64A-4BAB-B71E-DCBFE32E8D49}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/private/ITEMS_1.xlsx
+++ b/private/ITEMS_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FA22A5-C5E3-4B8E-BCEE-46D64AB342D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC084D2-5663-4E46-A087-60B1F6338765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="4215" windowWidth="21015" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5010" yWindow="4215" windowWidth="21015" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL_ITEMS" sheetId="3" r:id="rId1"/>

--- a/private/ITEMS_1.xlsx
+++ b/private/ITEMS_1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC084D2-5663-4E46-A087-60B1F6338765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DFDE0C-4244-4E5C-8978-0626BADEC928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5010" yWindow="4215" windowWidth="21015" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11640" yWindow="3795" windowWidth="26265" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL_ITEMS" sheetId="3" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="7" r:id="rId2"/>
+    <sheet name="SUPPORT_ITEMS" sheetId="8" r:id="rId2"/>
     <sheet name="BOOTS" sheetId="4" r:id="rId3"/>
     <sheet name="TRINKETS" sheetId="5" r:id="rId4"/>
     <sheet name="_SOURCES" sheetId="6" r:id="rId5"/>
@@ -22,7 +22,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">_SOURCES!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BOOTS!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$E$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$F$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SUPPORT_ITEMS!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TRINKETS!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="239">
   <si>
     <t>Adaptive Helm</t>
   </si>
@@ -614,21 +615,12 @@
     <t>Masterwork Items</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Heartsteel</t>
   </si>
   <si>
     <t>Radiant Virtue</t>
   </si>
   <si>
-    <t>Ornn</t>
-  </si>
-  <si>
-    <t>Frozen Fist</t>
-  </si>
-  <si>
     <t>Leviathan</t>
   </si>
   <si>
@@ -672,13 +664,112 @@
   </si>
   <si>
     <t>Cry of the Shrieking City</t>
+  </si>
+  <si>
+    <t>10.23</t>
+  </si>
+  <si>
+    <t>11.23</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Dawncore</t>
+  </si>
+  <si>
+    <t>Kaenic Rookern</t>
+  </si>
+  <si>
+    <t>Hollow Radiance</t>
+  </si>
+  <si>
+    <t>Unending Despair</t>
+  </si>
+  <si>
+    <t>Trailblazer</t>
+  </si>
+  <si>
+    <t>Caster’s Companion</t>
+  </si>
+  <si>
+    <t>Cryptbloom</t>
+  </si>
+  <si>
+    <t>Stormsurge</t>
+  </si>
+  <si>
+    <t>Malignance</t>
+  </si>
+  <si>
+    <t>Voltaic Cyclosword</t>
+  </si>
+  <si>
+    <t>Profane Hydra</t>
+  </si>
+  <si>
+    <t>Hubris</t>
+  </si>
+  <si>
+    <t>Opportunity</t>
+  </si>
+  <si>
+    <t>Sundered Sky</t>
+  </si>
+  <si>
+    <t>Nitro Hexaegis</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>Bloodsong</t>
+  </si>
+  <si>
+    <t>Celestial Opposition</t>
+  </si>
+  <si>
+    <t>Dream Maker</t>
+  </si>
+  <si>
+    <t>Rectrix</t>
+  </si>
+  <si>
+    <t>Runic Compass</t>
+  </si>
+  <si>
+    <t>Bounty of Worlds</t>
+  </si>
+  <si>
+    <t>Shattered Armguard</t>
+  </si>
+  <si>
+    <t>Solstice Sleigh</t>
+  </si>
+  <si>
+    <t>Steel Sigil</t>
+  </si>
+  <si>
+    <t>Terminus</t>
+  </si>
+  <si>
+    <t>Tunneler</t>
+  </si>
+  <si>
+    <t>World Atlas</t>
+  </si>
+  <si>
+    <t>Zaz'Zak's Realmspike</t>
+  </si>
+  <si>
+    <t>Luden's Companion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,12 +792,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -734,17 +819,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1060,11 +1143,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E185"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,11 +1156,11 @@
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="44.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
@@ -1086,14 +1170,17 @@
       <c r="C1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1400</v>
       </c>
@@ -1101,10 +1188,10 @@
         <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1401</v>
       </c>
@@ -1112,10 +1199,10 @@
         <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1402</v>
       </c>
@@ -1123,10 +1210,10 @@
         <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1408</v>
       </c>
@@ -1134,10 +1221,10 @@
         <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1409</v>
       </c>
@@ -1145,10 +1232,10 @@
         <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1410</v>
       </c>
@@ -1156,10 +1243,10 @@
         <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1412</v>
       </c>
@@ -1167,10 +1254,10 @@
         <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1413</v>
       </c>
@@ -1178,10 +1265,10 @@
         <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1414</v>
       </c>
@@ -1189,10 +1276,10 @@
         <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1416</v>
       </c>
@@ -1200,10 +1287,10 @@
         <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1418</v>
       </c>
@@ -1211,10 +1298,10 @@
         <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1419</v>
       </c>
@@ -1222,10 +1309,10 @@
         <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2045</v>
       </c>
@@ -1233,21 +1320,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2065</v>
       </c>
       <c r="B15" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="5">
-        <v>10.23</v>
+      <c r="D15" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2301</v>
       </c>
@@ -1278,8 +1365,8 @@
       <c r="B19" t="s">
         <v>169</v>
       </c>
-      <c r="D19" s="5">
-        <v>11.23</v>
+      <c r="D19" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -1316,8 +1403,8 @@
       <c r="B23" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="5">
-        <v>10.23</v>
+      <c r="D23" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1447,8 +1534,8 @@
       <c r="B39" t="s">
         <v>132</v>
       </c>
-      <c r="D39" s="5">
-        <v>10.23</v>
+      <c r="D39" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1515,10 +1602,10 @@
         <v>3084</v>
       </c>
       <c r="B47" t="s">
-        <v>190</v>
-      </c>
-      <c r="D47" s="5">
-        <v>12.22</v>
+        <v>189</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
@@ -1659,8 +1746,8 @@
       <c r="B64" t="s">
         <v>167</v>
       </c>
-      <c r="D64" s="5">
-        <v>11.23</v>
+      <c r="D64" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1670,8 +1757,8 @@
       <c r="B65" t="s">
         <v>168</v>
       </c>
-      <c r="D65" s="5">
-        <v>11.23</v>
+      <c r="D65" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1745,8 +1832,8 @@
       <c r="B74" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="5">
-        <v>10.23</v>
+      <c r="D74" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
@@ -1834,8 +1921,8 @@
       <c r="B84" t="s">
         <v>162</v>
       </c>
-      <c r="D84" s="5">
-        <v>11.13</v>
+      <c r="D84" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -1904,8 +1991,8 @@
       <c r="B92" t="s">
         <v>121</v>
       </c>
-      <c r="D92" s="5">
-        <v>10.23</v>
+      <c r="D92" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2075,8 +2162,8 @@
       <c r="B113" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="5">
-        <v>10.23</v>
+      <c r="D113" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E113" t="b">
         <v>1</v>
@@ -2089,8 +2176,8 @@
       <c r="B114" t="s">
         <v>103</v>
       </c>
-      <c r="D114" s="5">
-        <v>10.23</v>
+      <c r="D114" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2100,8 +2187,8 @@
       <c r="B115" t="s">
         <v>115</v>
       </c>
-      <c r="D115" s="5">
-        <v>10.23</v>
+      <c r="D115" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2111,8 +2198,8 @@
       <c r="B116" t="s">
         <v>106</v>
       </c>
-      <c r="D116" s="5">
-        <v>10.23</v>
+      <c r="D116" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2122,8 +2209,8 @@
       <c r="B117" t="s">
         <v>126</v>
       </c>
-      <c r="D117" s="5">
-        <v>10.23</v>
+      <c r="D117" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E117" t="b">
         <v>1</v>
@@ -2136,8 +2223,8 @@
       <c r="B118" t="s">
         <v>124</v>
       </c>
-      <c r="D118" s="5">
-        <v>10.23</v>
+      <c r="D118" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E118" t="b">
         <v>1</v>
@@ -2150,8 +2237,8 @@
       <c r="B119" t="s">
         <v>107</v>
       </c>
-      <c r="D119" s="5">
-        <v>10.23</v>
+      <c r="D119" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2161,8 +2248,8 @@
       <c r="B120" t="s">
         <v>164</v>
       </c>
-      <c r="D120" s="5">
-        <v>11.23</v>
+      <c r="D120" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="E120" t="b">
         <v>1</v>
@@ -2175,8 +2262,8 @@
       <c r="B121" t="s">
         <v>166</v>
       </c>
-      <c r="D121" s="5">
-        <v>11.23</v>
+      <c r="D121" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -2186,8 +2273,8 @@
       <c r="B122" t="s">
         <v>130</v>
       </c>
-      <c r="D122" s="5">
-        <v>10.23</v>
+      <c r="D122" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -2197,8 +2284,8 @@
       <c r="B123" t="s">
         <v>11</v>
       </c>
-      <c r="D123" s="5">
-        <v>10.23</v>
+      <c r="D123" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -2208,8 +2295,8 @@
       <c r="B124" t="s">
         <v>104</v>
       </c>
-      <c r="D124" s="5">
-        <v>10.23</v>
+      <c r="D124" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -2219,8 +2306,8 @@
       <c r="B125" t="s">
         <v>102</v>
       </c>
-      <c r="D125" s="5">
-        <v>10.23</v>
+      <c r="D125" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -2230,8 +2317,8 @@
       <c r="B126" t="s">
         <v>122</v>
       </c>
-      <c r="D126" s="5">
-        <v>10.23</v>
+      <c r="D126" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E126" t="b">
         <v>1</v>
@@ -2244,8 +2331,8 @@
       <c r="B127" t="s">
         <v>113</v>
       </c>
-      <c r="D127" s="5">
-        <v>10.23</v>
+      <c r="D127" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E127" t="b">
         <v>1</v>
@@ -2258,8 +2345,8 @@
       <c r="B128" t="s">
         <v>131</v>
       </c>
-      <c r="D128" s="5">
-        <v>10.23</v>
+      <c r="D128" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E128" t="b">
         <v>1</v>
@@ -2272,8 +2359,8 @@
       <c r="B129" t="s">
         <v>108</v>
       </c>
-      <c r="D129" s="5">
-        <v>10.23</v>
+      <c r="D129" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E129" t="b">
         <v>1</v>
@@ -2286,8 +2373,8 @@
       <c r="B130" t="s">
         <v>119</v>
       </c>
-      <c r="D130" s="5">
-        <v>10.23</v>
+      <c r="D130" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E130" t="b">
         <v>1</v>
@@ -2300,8 +2387,8 @@
       <c r="B131" t="s">
         <v>120</v>
       </c>
-      <c r="D131" s="5">
-        <v>10.23</v>
+      <c r="D131" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E131" t="b">
         <v>1</v>
@@ -2314,8 +2401,8 @@
       <c r="B132" t="s">
         <v>110</v>
       </c>
-      <c r="D132" s="5">
-        <v>10.23</v>
+      <c r="D132" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E132" t="b">
         <v>1</v>
@@ -2328,8 +2415,8 @@
       <c r="B133" t="s">
         <v>57</v>
       </c>
-      <c r="D133" s="5">
-        <v>12.22</v>
+      <c r="D133" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="E133" t="b">
         <v>1</v>
@@ -2342,8 +2429,8 @@
       <c r="B134" t="s">
         <v>111</v>
       </c>
-      <c r="D134" s="5">
-        <v>10.23</v>
+      <c r="D134" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E134" t="b">
         <v>1</v>
@@ -2356,8 +2443,8 @@
       <c r="B135" t="s">
         <v>134</v>
       </c>
-      <c r="D135" s="5">
-        <v>10.23</v>
+      <c r="D135" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -2365,10 +2452,10 @@
         <v>6665</v>
       </c>
       <c r="B136" t="s">
-        <v>198</v>
-      </c>
-      <c r="D136" s="5">
-        <v>12.22</v>
+        <v>195</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="E136" t="b">
         <v>1</v>
@@ -2379,10 +2466,10 @@
         <v>6667</v>
       </c>
       <c r="B137" t="s">
-        <v>191</v>
-      </c>
-      <c r="D137" s="5">
-        <v>12.22</v>
+        <v>190</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="E137" t="b">
         <v>1</v>
@@ -2395,8 +2482,8 @@
       <c r="B138" t="s">
         <v>112</v>
       </c>
-      <c r="D138" s="5">
-        <v>10.23</v>
+      <c r="D138" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E138" t="b">
         <v>1</v>
@@ -2409,8 +2496,8 @@
       <c r="B139" t="s">
         <v>118</v>
       </c>
-      <c r="D139" s="5">
-        <v>10.23</v>
+      <c r="D139" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E139" t="b">
         <v>1</v>
@@ -2423,8 +2510,8 @@
       <c r="B140" t="s">
         <v>116</v>
       </c>
-      <c r="D140" s="5">
-        <v>10.23</v>
+      <c r="D140" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E140" t="b">
         <v>1</v>
@@ -2437,8 +2524,11 @@
       <c r="B141" t="s">
         <v>123</v>
       </c>
-      <c r="D141" s="5">
-        <v>10.23</v>
+      <c r="D141" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -2448,8 +2538,8 @@
       <c r="B142" t="s">
         <v>133</v>
       </c>
-      <c r="D142" s="5">
-        <v>10.23</v>
+      <c r="D142" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -2459,8 +2549,8 @@
       <c r="B143" t="s">
         <v>12</v>
       </c>
-      <c r="D143" s="5">
-        <v>10.23</v>
+      <c r="D143" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E143" t="b">
         <v>1</v>
@@ -2473,8 +2563,8 @@
       <c r="B144" t="s">
         <v>109</v>
       </c>
-      <c r="D144" s="5">
-        <v>10.23</v>
+      <c r="D144" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E144" t="b">
         <v>1</v>
@@ -2487,8 +2577,8 @@
       <c r="B145" t="s">
         <v>125</v>
       </c>
-      <c r="D145" s="5">
-        <v>10.23</v>
+      <c r="D145" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E145" t="b">
         <v>1</v>
@@ -2501,8 +2591,8 @@
       <c r="B146" t="s">
         <v>128</v>
       </c>
-      <c r="D146" s="5">
-        <v>10.23</v>
+      <c r="D146" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -2512,8 +2602,8 @@
       <c r="B147" t="s">
         <v>127</v>
       </c>
-      <c r="D147" s="5">
-        <v>10.23</v>
+      <c r="D147" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -2523,8 +2613,8 @@
       <c r="B148" t="s">
         <v>165</v>
       </c>
-      <c r="D148" s="5">
-        <v>11.23</v>
+      <c r="D148" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -2537,7 +2627,7 @@
       <c r="C149" t="s">
         <v>83</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D149" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E149" t="b">
@@ -2554,7 +2644,7 @@
       <c r="C150" t="s">
         <v>83</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E150" t="b">
@@ -2571,7 +2661,7 @@
       <c r="C151" t="s">
         <v>83</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D151" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E151" t="b">
@@ -2588,7 +2678,7 @@
       <c r="C152" t="s">
         <v>83</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D152" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E152" t="b">
@@ -2605,7 +2695,7 @@
       <c r="C153" t="s">
         <v>83</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D153" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E153" t="b">
@@ -2622,7 +2712,7 @@
       <c r="C154" t="s">
         <v>83</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D154" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E154" t="b">
@@ -2639,7 +2729,7 @@
       <c r="C155" t="s">
         <v>83</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E155" t="b">
@@ -2656,7 +2746,7 @@
       <c r="C156" t="s">
         <v>83</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D156" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E156" t="b">
@@ -2673,7 +2763,7 @@
       <c r="C157" t="s">
         <v>83</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D157" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E157" t="b">
@@ -2690,7 +2780,7 @@
       <c r="C158" t="s">
         <v>83</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D158" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E158" t="b">
@@ -2707,7 +2797,7 @@
       <c r="C159" t="s">
         <v>83</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="D159" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E159" t="b">
@@ -2724,7 +2814,7 @@
       <c r="C160" t="s">
         <v>83</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D160" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E160" t="b">
@@ -2741,7 +2831,7 @@
       <c r="C161" t="s">
         <v>83</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="D161" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E161" t="b">
@@ -2758,7 +2848,7 @@
       <c r="C162" t="s">
         <v>83</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D162" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E162" t="b">
@@ -2775,7 +2865,7 @@
       <c r="C163" t="s">
         <v>83</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D163" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E163" t="b">
@@ -2792,7 +2882,7 @@
       <c r="C164" t="s">
         <v>83</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="D164" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E164" t="b">
@@ -2809,7 +2899,7 @@
       <c r="C165" t="s">
         <v>83</v>
       </c>
-      <c r="D165" s="7" t="s">
+      <c r="D165" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E165" t="b">
@@ -2826,7 +2916,7 @@
       <c r="C166" t="s">
         <v>83</v>
       </c>
-      <c r="D166" s="7" t="s">
+      <c r="D166" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E166" t="b">
@@ -2843,7 +2933,7 @@
       <c r="C167" t="s">
         <v>83</v>
       </c>
-      <c r="D167" s="7" t="s">
+      <c r="D167" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E167" t="b">
@@ -2860,7 +2950,7 @@
       <c r="C168" t="s">
         <v>83</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D168" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E168" t="b">
@@ -2877,7 +2967,7 @@
       <c r="C169" t="s">
         <v>83</v>
       </c>
-      <c r="D169" s="7" t="s">
+      <c r="D169" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E169" t="b">
@@ -2894,7 +2984,7 @@
       <c r="C170" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="7" t="s">
+      <c r="D170" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E170" t="b">
@@ -2911,7 +3001,7 @@
       <c r="C171" t="s">
         <v>83</v>
       </c>
-      <c r="D171" s="7" t="s">
+      <c r="D171" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E171" t="b">
@@ -2928,7 +3018,7 @@
       <c r="C172" t="s">
         <v>83</v>
       </c>
-      <c r="D172" s="7" t="s">
+      <c r="D172" s="5" t="s">
         <v>180</v>
       </c>
       <c r="E172" t="b">
@@ -2945,7 +3035,7 @@
       <c r="C173" t="s">
         <v>83</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D173" s="5" t="s">
         <v>180</v>
       </c>
       <c r="E173" t="b">
@@ -2957,13 +3047,13 @@
         <v>7025</v>
       </c>
       <c r="B174" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C174" t="s">
         <v>83</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>200</v>
+      <c r="D174" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="E174" t="b">
         <v>1</v>
@@ -2974,13 +3064,13 @@
         <v>7026</v>
       </c>
       <c r="B175" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C175" t="s">
         <v>83</v>
       </c>
-      <c r="D175" s="5" t="s">
-        <v>200</v>
+      <c r="D175" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="E175" t="b">
         <v>1</v>
@@ -2991,13 +3081,13 @@
         <v>7027</v>
       </c>
       <c r="B176" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C176" t="s">
         <v>83</v>
       </c>
-      <c r="D176" s="5" t="s">
-        <v>200</v>
+      <c r="D176" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="E176" t="b">
         <v>1</v>
@@ -3008,13 +3098,13 @@
         <v>7028</v>
       </c>
       <c r="B177" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C177" t="s">
         <v>83</v>
       </c>
-      <c r="D177" s="5" t="s">
-        <v>200</v>
+      <c r="D177" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="E177" t="b">
         <v>1</v>
@@ -3027,8 +3117,8 @@
       <c r="B178" t="s">
         <v>161</v>
       </c>
-      <c r="D178" s="5" t="s">
-        <v>201</v>
+      <c r="D178" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -3038,8 +3128,8 @@
       <c r="B179" t="s">
         <v>63</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>202</v>
+      <c r="D179" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -3047,10 +3137,10 @@
         <v>6620</v>
       </c>
       <c r="B180" t="s">
-        <v>203</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="E180" t="b">
         <v>1</v>
@@ -3061,13 +3151,13 @@
         <v>7029</v>
       </c>
       <c r="B181" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C181" t="s">
         <v>83</v>
       </c>
-      <c r="D181" s="5" t="s">
-        <v>202</v>
+      <c r="D181" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="E181" t="b">
         <v>1</v>
@@ -3078,13 +3168,13 @@
         <v>7030</v>
       </c>
       <c r="B182" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C182" t="s">
         <v>83</v>
       </c>
-      <c r="D182" s="5" t="s">
-        <v>202</v>
+      <c r="D182" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -3092,13 +3182,13 @@
         <v>7031</v>
       </c>
       <c r="B183" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C183" t="s">
         <v>83</v>
       </c>
-      <c r="D183" s="5" t="s">
-        <v>202</v>
+      <c r="D183" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="E183" t="b">
         <v>1</v>
@@ -3109,13 +3199,13 @@
         <v>7032</v>
       </c>
       <c r="B184" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C184" t="s">
         <v>83</v>
       </c>
-      <c r="D184" s="5" t="s">
-        <v>202</v>
+      <c r="D184" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="E184" t="b">
         <v>1</v>
@@ -3126,1814 +3216,354 @@
         <v>7033</v>
       </c>
       <c r="B185" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C185" t="s">
         <v>83</v>
       </c>
-      <c r="D185" s="5" t="s">
-        <v>202</v>
+      <c r="D185" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="E185" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>6621</v>
+      </c>
+      <c r="B186" t="s">
+        <v>209</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2504</v>
+      </c>
+      <c r="B187" t="s">
+        <v>210</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>6664</v>
+      </c>
+      <c r="B188" t="s">
+        <v>211</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2502</v>
+      </c>
+      <c r="B189" t="s">
+        <v>212</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>3002</v>
+      </c>
+      <c r="B190" t="s">
+        <v>213</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>6655</v>
+      </c>
+      <c r="B191" t="s">
+        <v>214</v>
+      </c>
+      <c r="C191" t="s">
+        <v>238</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>3137</v>
+      </c>
+      <c r="B192" t="s">
+        <v>215</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>4646</v>
+      </c>
+      <c r="B193" t="s">
+        <v>216</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>3118</v>
+      </c>
+      <c r="B194" t="s">
+        <v>217</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>6699</v>
+      </c>
+      <c r="B195" t="s">
+        <v>218</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>6698</v>
+      </c>
+      <c r="B196" t="s">
+        <v>219</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>6697</v>
+      </c>
+      <c r="B197" t="s">
+        <v>220</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>6701</v>
+      </c>
+      <c r="B198" t="s">
+        <v>221</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>6610</v>
+      </c>
+      <c r="B199" t="s">
+        <v>222</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>3073</v>
+      </c>
+      <c r="B200" t="s">
+        <v>223</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B205" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>237</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E178" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F200" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F1445A-E0DF-4AEA-B4E2-96C5AAB0B48A}">
-  <dimension ref="A1:K56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE7DD5E-C37A-4ABD-A066-81C2D255D80B}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G31" sqref="C21:G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G1" s="1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2065</v>
+        <v>3877</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" t="b">
-        <f>VLOOKUP(A2,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <f>A2=G2</f>
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2065</v>
-      </c>
-      <c r="H2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2">
-        <v>10.23</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3001</v>
+        <v>3869</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" t="b">
-        <f>VLOOKUP(A3,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <f t="shared" ref="F3:F56" si="0">A3=G3</f>
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>3001</v>
-      </c>
-      <c r="H3" t="s">
-        <v>169</v>
-      </c>
-      <c r="J3">
-        <v>11.23</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3078</v>
+        <v>3870</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" t="b">
-        <f>VLOOKUP(A4,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>3078</v>
-      </c>
-      <c r="H4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3084</v>
+        <v>3876</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" t="b">
-        <f>VLOOKUP(A5,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3084</v>
-      </c>
-      <c r="H5" t="s">
-        <v>190</v>
-      </c>
-      <c r="J5">
-        <v>12.22</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3152</v>
+        <v>3871</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" t="b">
-        <f>VLOOKUP(A6,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3152</v>
-      </c>
-      <c r="H6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J6">
-        <v>10.23</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3190</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" t="b">
-        <f>VLOOKUP(A7,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3190</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4005</v>
-      </c>
-      <c r="B8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" t="b">
-        <f>VLOOKUP(A8,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F8" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>4005</v>
-      </c>
-      <c r="H8" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8">
-        <v>10.23</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4633</v>
-      </c>
-      <c r="B9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D9" t="b">
-        <f>VLOOKUP(A9,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>4633</v>
-      </c>
-      <c r="H9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J9">
-        <v>10.23</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4636</v>
-      </c>
-      <c r="B10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" t="b">
-        <f>VLOOKUP(A10,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F10" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>4636</v>
-      </c>
-      <c r="H10" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10">
-        <v>10.23</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4644</v>
-      </c>
-      <c r="B11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" t="b">
-        <f>VLOOKUP(A11,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4644</v>
-      </c>
-      <c r="H11" t="s">
-        <v>164</v>
-      </c>
-      <c r="J11">
-        <v>11.23</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>6617</v>
-      </c>
-      <c r="B12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" t="b">
-        <f>VLOOKUP(A12,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F12" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>6617</v>
-      </c>
-      <c r="H12" t="s">
-        <v>122</v>
-      </c>
-      <c r="J12">
-        <v>10.23</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>6630</v>
-      </c>
-      <c r="B13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" t="b">
-        <f>VLOOKUP(A13,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F13" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>6630</v>
-      </c>
-      <c r="H13" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13">
-        <v>10.23</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6631</v>
-      </c>
-      <c r="B14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" t="b">
-        <f>VLOOKUP(A14,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F14" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>6631</v>
-      </c>
-      <c r="H14" t="s">
-        <v>131</v>
-      </c>
-      <c r="J14">
-        <v>10.23</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>6632</v>
-      </c>
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" t="b">
-        <f>VLOOKUP(A15,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F15" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>6632</v>
-      </c>
-      <c r="H15" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15">
-        <v>10.23</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>6653</v>
-      </c>
-      <c r="B16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" t="b">
-        <f>VLOOKUP(A16,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F16" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>6653</v>
-      </c>
-      <c r="H16" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16">
-        <v>10.23</v>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>6655</v>
-      </c>
-      <c r="B17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" t="b">
-        <f>VLOOKUP(A17,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F17" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>6655</v>
-      </c>
-      <c r="H17" t="s">
-        <v>120</v>
-      </c>
-      <c r="J17">
-        <v>10.23</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>6656</v>
-      </c>
-      <c r="B18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" t="s">
-        <v>189</v>
-      </c>
-      <c r="D18" t="b">
-        <f>VLOOKUP(A18,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F18" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>6656</v>
-      </c>
-      <c r="H18" t="s">
-        <v>110</v>
-      </c>
-      <c r="J18">
-        <v>10.23</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>6657</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" t="b">
-        <f>VLOOKUP(A19,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F19" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>6657</v>
-      </c>
-      <c r="H19" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19">
-        <v>12.22</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>6662</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D20" t="b">
-        <f>VLOOKUP(A20,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>6662</v>
-      </c>
-      <c r="H20" t="s">
-        <v>111</v>
-      </c>
-      <c r="J20">
-        <v>10.23</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>6665</v>
-      </c>
-      <c r="B21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" t="b">
-        <f>VLOOKUP(A21,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F21" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>6665</v>
-      </c>
-      <c r="H21" t="s">
-        <v>198</v>
-      </c>
-      <c r="J21">
-        <v>12.22</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>6667</v>
-      </c>
-      <c r="B22" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" t="s">
-        <v>189</v>
-      </c>
-      <c r="D22" t="b">
-        <f>VLOOKUP(A22,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F22" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>6667</v>
-      </c>
-      <c r="H22" t="s">
-        <v>191</v>
-      </c>
-      <c r="J22">
-        <v>12.22</v>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>6671</v>
-      </c>
-      <c r="B23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" t="s">
-        <v>189</v>
-      </c>
-      <c r="D23" t="b">
-        <f>VLOOKUP(A23,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F23" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>6671</v>
-      </c>
-      <c r="H23" t="s">
-        <v>112</v>
-      </c>
-      <c r="J23">
-        <v>10.23</v>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>6672</v>
-      </c>
-      <c r="B24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D24" t="b">
-        <f>VLOOKUP(A24,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F24" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>6672</v>
-      </c>
-      <c r="H24" t="s">
-        <v>118</v>
-      </c>
-      <c r="J24">
-        <v>10.23</v>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>6673</v>
-      </c>
-      <c r="B25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" t="s">
-        <v>189</v>
-      </c>
-      <c r="D25" t="b">
-        <f>VLOOKUP(A25,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>6673</v>
-      </c>
-      <c r="H25" t="s">
-        <v>116</v>
-      </c>
-      <c r="J25">
-        <v>10.23</v>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>6691</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>189</v>
-      </c>
-      <c r="D26" t="b">
-        <f>VLOOKUP(A26,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F26" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>6691</v>
-      </c>
-      <c r="H26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26">
-        <v>10.23</v>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>6692</v>
-      </c>
-      <c r="B27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" t="s">
-        <v>189</v>
-      </c>
-      <c r="D27" t="b">
-        <f>VLOOKUP(A27,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F27" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>6692</v>
-      </c>
-      <c r="H27" t="s">
-        <v>109</v>
-      </c>
-      <c r="J27">
-        <v>10.23</v>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>6693</v>
-      </c>
-      <c r="B28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" t="b">
-        <f>VLOOKUP(A28,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F28" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>6693</v>
-      </c>
-      <c r="H28" t="s">
-        <v>125</v>
-      </c>
-      <c r="J28">
-        <v>10.23</v>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>7000</v>
-      </c>
-      <c r="B29" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" t="s">
-        <v>192</v>
-      </c>
-      <c r="D29" t="b">
-        <f>VLOOKUP(A29,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F29" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>7000</v>
-      </c>
-      <c r="H29" t="s">
-        <v>139</v>
-      </c>
-      <c r="I29" t="s">
-        <v>83</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>7001</v>
-      </c>
-      <c r="B30" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" t="s">
-        <v>192</v>
-      </c>
-      <c r="D30" t="b">
-        <f>VLOOKUP(A30,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F30" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>7001</v>
-      </c>
-      <c r="H30" t="s">
-        <v>140</v>
-      </c>
-      <c r="I30" t="s">
-        <v>83</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>7002</v>
-      </c>
-      <c r="B31" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" t="b">
-        <f>VLOOKUP(A31,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>7002</v>
-      </c>
-      <c r="H31" t="s">
-        <v>141</v>
-      </c>
-      <c r="I31" t="s">
-        <v>83</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>7005</v>
-      </c>
-      <c r="B32" t="s">
-        <v>193</v>
-      </c>
-      <c r="C32" t="s">
-        <v>192</v>
-      </c>
-      <c r="D32" t="b">
-        <f>VLOOKUP(A32,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F32" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>7005</v>
-      </c>
-      <c r="H32" t="s">
-        <v>144</v>
-      </c>
-      <c r="I32" t="s">
-        <v>83</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>7006</v>
-      </c>
-      <c r="B33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" t="s">
-        <v>192</v>
-      </c>
-      <c r="D33" t="b">
-        <f>VLOOKUP(A33,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F33" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>7006</v>
-      </c>
-      <c r="H33" t="s">
-        <v>145</v>
-      </c>
-      <c r="I33" t="s">
-        <v>83</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>7007</v>
-      </c>
-      <c r="B34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" t="b">
-        <f>VLOOKUP(A34,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F34" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>7007</v>
-      </c>
-      <c r="H34" t="s">
-        <v>146</v>
-      </c>
-      <c r="I34" t="s">
-        <v>83</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>7008</v>
-      </c>
-      <c r="B35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" t="s">
-        <v>192</v>
-      </c>
-      <c r="D35" t="b">
-        <f>VLOOKUP(A35,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F35" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>7008</v>
-      </c>
-      <c r="H35" t="s">
-        <v>147</v>
-      </c>
-      <c r="I35" t="s">
-        <v>83</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>7009</v>
-      </c>
-      <c r="B36" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" t="s">
-        <v>192</v>
-      </c>
-      <c r="D36" t="b">
-        <f>VLOOKUP(A36,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F36" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>7009</v>
-      </c>
-      <c r="H36" t="s">
-        <v>148</v>
-      </c>
-      <c r="I36" t="s">
-        <v>83</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>7010</v>
-      </c>
-      <c r="B37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" t="s">
-        <v>192</v>
-      </c>
-      <c r="D37" t="b">
-        <f>VLOOKUP(A37,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F37" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>7010</v>
-      </c>
-      <c r="H37" t="s">
-        <v>149</v>
-      </c>
-      <c r="I37" t="s">
-        <v>83</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>7011</v>
-      </c>
-      <c r="B38" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" t="b">
-        <f>VLOOKUP(A38,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F38" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>7011</v>
-      </c>
-      <c r="H38" t="s">
-        <v>150</v>
-      </c>
-      <c r="I38" t="s">
-        <v>83</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>7012</v>
-      </c>
-      <c r="B39" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" t="s">
-        <v>192</v>
-      </c>
-      <c r="D39" t="b">
-        <f>VLOOKUP(A39,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F39" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>7012</v>
-      </c>
-      <c r="H39" t="s">
-        <v>151</v>
-      </c>
-      <c r="I39" t="s">
-        <v>83</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>7013</v>
-      </c>
-      <c r="B40" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" t="s">
-        <v>192</v>
-      </c>
-      <c r="D40" t="b">
-        <f>VLOOKUP(A40,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F40" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>7013</v>
-      </c>
-      <c r="H40" t="s">
-        <v>152</v>
-      </c>
-      <c r="I40" t="s">
-        <v>83</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>7014</v>
-      </c>
-      <c r="B41" t="s">
-        <v>153</v>
-      </c>
-      <c r="C41" t="s">
-        <v>192</v>
-      </c>
-      <c r="D41" t="b">
-        <f>VLOOKUP(A41,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F41" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>7014</v>
-      </c>
-      <c r="H41" t="s">
-        <v>153</v>
-      </c>
-      <c r="I41" t="s">
-        <v>83</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>7015</v>
-      </c>
-      <c r="B42" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" t="s">
-        <v>192</v>
-      </c>
-      <c r="D42" t="b">
-        <f>VLOOKUP(A42,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F42" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>7015</v>
-      </c>
-      <c r="H42" t="s">
-        <v>154</v>
-      </c>
-      <c r="I42" t="s">
-        <v>83</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>7016</v>
-      </c>
-      <c r="B43" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" t="s">
-        <v>192</v>
-      </c>
-      <c r="D43" t="b">
-        <f>VLOOKUP(A43,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F43" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>7016</v>
-      </c>
-      <c r="H43" t="s">
-        <v>155</v>
-      </c>
-      <c r="I43" t="s">
-        <v>83</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>7017</v>
-      </c>
-      <c r="B44" t="s">
-        <v>137</v>
-      </c>
-      <c r="C44" t="s">
-        <v>192</v>
-      </c>
-      <c r="D44" t="b">
-        <f>VLOOKUP(A44,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F44" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>7017</v>
-      </c>
-      <c r="H44" t="s">
-        <v>137</v>
-      </c>
-      <c r="I44" t="s">
-        <v>83</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>7018</v>
-      </c>
-      <c r="B45" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" t="s">
-        <v>192</v>
-      </c>
-      <c r="D45" t="b">
-        <f>VLOOKUP(A45,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F45" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>7018</v>
-      </c>
-      <c r="H45" t="s">
-        <v>156</v>
-      </c>
-      <c r="I45" t="s">
-        <v>83</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>7019</v>
-      </c>
-      <c r="B46" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" t="b">
-        <f>VLOOKUP(A46,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F46" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>7019</v>
-      </c>
-      <c r="H46" t="s">
-        <v>157</v>
-      </c>
-      <c r="I46" t="s">
-        <v>83</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>7020</v>
-      </c>
-      <c r="B47" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" t="s">
-        <v>192</v>
-      </c>
-      <c r="D47" t="b">
-        <f>VLOOKUP(A47,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F47" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>7020</v>
-      </c>
-      <c r="H47" t="s">
-        <v>158</v>
-      </c>
-      <c r="I47" t="s">
-        <v>83</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>7021</v>
-      </c>
-      <c r="B48" t="s">
-        <v>159</v>
-      </c>
-      <c r="C48" t="s">
-        <v>192</v>
-      </c>
-      <c r="D48" t="b">
-        <f>VLOOKUP(A48,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F48" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>7021</v>
-      </c>
-      <c r="H48" t="s">
-        <v>159</v>
-      </c>
-      <c r="I48" t="s">
-        <v>83</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>7022</v>
-      </c>
-      <c r="B49" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" t="b">
-        <f>VLOOKUP(A49,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F49" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>7022</v>
-      </c>
-      <c r="H49" t="s">
-        <v>160</v>
-      </c>
-      <c r="I49" t="s">
-        <v>83</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>7023</v>
-      </c>
-      <c r="B50" t="s">
-        <v>179</v>
-      </c>
-      <c r="C50" t="s">
-        <v>189</v>
-      </c>
-      <c r="D50" t="b">
-        <f>VLOOKUP(A50,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F50" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>7023</v>
-      </c>
-      <c r="H50" t="s">
-        <v>179</v>
-      </c>
-      <c r="I50" t="s">
-        <v>83</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>7024</v>
-      </c>
-      <c r="B51" t="s">
-        <v>178</v>
-      </c>
-      <c r="C51" t="s">
-        <v>192</v>
-      </c>
-      <c r="D51" t="b">
-        <f>VLOOKUP(A51,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F51" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>7024</v>
-      </c>
-      <c r="H51" t="s">
-        <v>178</v>
-      </c>
-      <c r="I51" t="s">
-        <v>83</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>7025</v>
-      </c>
-      <c r="B52" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" t="s">
-        <v>192</v>
-      </c>
-      <c r="D52" t="b">
-        <f>VLOOKUP(A52,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F52" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>7025</v>
-      </c>
-      <c r="H52" t="s">
-        <v>194</v>
-      </c>
-      <c r="I52" t="s">
-        <v>83</v>
-      </c>
-      <c r="J52">
-        <v>12.22</v>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>7026</v>
-      </c>
-      <c r="B53" t="s">
-        <v>195</v>
-      </c>
-      <c r="C53" t="s">
-        <v>192</v>
-      </c>
-      <c r="D53" t="b">
-        <f>VLOOKUP(A53,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F53" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>7026</v>
-      </c>
-      <c r="H53" t="s">
-        <v>195</v>
-      </c>
-      <c r="I53" t="s">
-        <v>83</v>
-      </c>
-      <c r="J53">
-        <v>12.22</v>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>7027</v>
-      </c>
-      <c r="B54" t="s">
-        <v>196</v>
-      </c>
-      <c r="C54" t="s">
-        <v>189</v>
-      </c>
-      <c r="D54" t="b">
-        <f>VLOOKUP(A54,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F54" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>7027</v>
-      </c>
-      <c r="H54" t="s">
-        <v>196</v>
-      </c>
-      <c r="I54" t="s">
-        <v>83</v>
-      </c>
-      <c r="J54">
-        <v>12.22</v>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>7028</v>
-      </c>
-      <c r="B55" t="s">
-        <v>197</v>
-      </c>
-      <c r="C55" t="s">
-        <v>189</v>
-      </c>
-      <c r="D55" t="b">
-        <f>VLOOKUP(A55,FINAL_ITEMS!A:E,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F55" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>7028</v>
-      </c>
-      <c r="H55" t="s">
-        <v>197</v>
-      </c>
-      <c r="I55" t="s">
-        <v>83</v>
-      </c>
-      <c r="J55">
-        <v>12.22</v>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="F56" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>237</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:K55">
-    <sortCondition ref="G2:G55"/>
-  </sortState>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4941,6 +3571,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5025,6 +3656,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5118,6 +3750,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36584CBC-C5EF-42EA-8E92-782B9445AA7C}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/private/ITEMS_1.xlsx
+++ b/private/ITEMS_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DFDE0C-4244-4E5C-8978-0626BADEC928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A9AEED-0220-4D39-BE59-B3E36FAC4739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="3795" windowWidth="26265" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9825" yWindow="3240" windowWidth="23715" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL_ITEMS" sheetId="3" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">_SOURCES!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BOOTS!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$F$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BOOTS!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL_ITEMS!$A$1:$F$205</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SUPPORT_ITEMS!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TRINKETS!$A$1:$C$1</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="243">
   <si>
     <t>Adaptive Helm</t>
   </si>
@@ -732,37 +732,49 @@
     <t>Dream Maker</t>
   </si>
   <si>
-    <t>Rectrix</t>
-  </si>
-  <si>
-    <t>Runic Compass</t>
-  </si>
-  <si>
-    <t>Bounty of Worlds</t>
-  </si>
-  <si>
-    <t>Shattered Armguard</t>
-  </si>
-  <si>
     <t>Solstice Sleigh</t>
   </si>
   <si>
-    <t>Steel Sigil</t>
-  </si>
-  <si>
     <t>Terminus</t>
   </si>
   <si>
-    <t>Tunneler</t>
-  </si>
-  <si>
-    <t>World Atlas</t>
-  </si>
-  <si>
     <t>Zaz'Zak's Realmspike</t>
   </si>
   <si>
     <t>Luden's Companion</t>
+  </si>
+  <si>
+    <t>Removed from the game as of patch 14.10</t>
+  </si>
+  <si>
+    <t>Symbiotic Soles</t>
+  </si>
+  <si>
+    <t>SincePaatch</t>
+  </si>
+  <si>
+    <t>14.10</t>
+  </si>
+  <si>
+    <t>Synchronized Souls</t>
+  </si>
+  <si>
+    <t>After Traveling 150,000 units, upgrades to Synchronized Souls</t>
+  </si>
+  <si>
+    <t>Blackfire Torch</t>
+  </si>
+  <si>
+    <t>Overlord's Bloodmail</t>
+  </si>
+  <si>
+    <t>Yun Tal Wildarrows</t>
+  </si>
+  <si>
+    <t>Existed already as Navori Quickblades</t>
+  </si>
+  <si>
+    <t>Navori Flickerblade</t>
   </si>
 </sst>
 </file>
@@ -824,14 +836,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -847,9 +857,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -887,7 +897,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -993,7 +1003,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1135,7 +1145,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1144,14 +1154,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F213"/>
+  <dimension ref="A1:F205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B196" sqref="B196"/>
+      <selection pane="bottomLeft" activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="44.85546875" customWidth="1"/>
@@ -1174,7 +1184,7 @@
         <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>208</v>
@@ -1330,9 +1340,6 @@
       <c r="D15" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1342,7 +1349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2302</v>
       </c>
@@ -1350,7 +1357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2303</v>
       </c>
@@ -1358,7 +1365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3001</v>
       </c>
@@ -1368,11 +1375,8 @@
       <c r="D19" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3003</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3004</v>
       </c>
@@ -1388,7 +1392,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3006</v>
       </c>
@@ -1396,7 +1400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3011</v>
       </c>
@@ -1407,7 +1411,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3022</v>
       </c>
@@ -1415,7 +1419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3025</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3026</v>
       </c>
@@ -1431,7 +1435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3027</v>
       </c>
@@ -1439,7 +1443,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3030</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3031</v>
       </c>
@@ -1455,7 +1459,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3033</v>
       </c>
@@ -1463,7 +1467,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3036</v>
       </c>
@@ -1471,7 +1475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3041</v>
       </c>
@@ -1479,7 +1483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3046</v>
       </c>
@@ -1487,7 +1491,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3050</v>
       </c>
@@ -1495,7 +1499,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3053</v>
       </c>
@@ -1503,7 +1507,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3056</v>
       </c>
@@ -1511,7 +1515,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3060</v>
       </c>
@@ -1519,7 +1523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3065</v>
       </c>
@@ -1527,7 +1531,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3068</v>
       </c>
@@ -1538,7 +1542,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3069</v>
       </c>
@@ -1546,7 +1550,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3071</v>
       </c>
@@ -1554,7 +1558,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3072</v>
       </c>
@@ -1562,7 +1566,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3074</v>
       </c>
@@ -1570,7 +1574,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3075</v>
       </c>
@@ -1578,18 +1582,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3078</v>
       </c>
       <c r="B45" t="s">
         <v>71</v>
       </c>
-      <c r="E45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3083</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3084</v>
       </c>
@@ -1607,11 +1608,8 @@
       <c r="D47" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3085</v>
       </c>
@@ -1750,7 +1748,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3121</v>
       </c>
@@ -1761,7 +1759,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3124</v>
       </c>
@@ -1769,7 +1767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3135</v>
       </c>
@@ -1777,7 +1775,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3139</v>
       </c>
@@ -1785,7 +1783,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3142</v>
       </c>
@@ -1793,7 +1791,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3143</v>
       </c>
@@ -1801,7 +1799,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3146</v>
       </c>
@@ -1809,7 +1807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3147</v>
       </c>
@@ -1817,7 +1815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3151</v>
       </c>
@@ -1825,7 +1823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3152</v>
       </c>
@@ -1835,11 +1833,8 @@
       <c r="D74" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3153</v>
       </c>
@@ -1847,7 +1842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3156</v>
       </c>
@@ -1855,7 +1850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3157</v>
       </c>
@@ -1863,7 +1858,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3161</v>
       </c>
@@ -1871,7 +1866,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3165</v>
       </c>
@@ -1879,7 +1874,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3170</v>
       </c>
@@ -1887,7 +1882,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3174</v>
       </c>
@@ -1895,7 +1890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3179</v>
       </c>
@@ -1903,7 +1898,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3181</v>
       </c>
@@ -1914,7 +1909,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3181</v>
       </c>
@@ -1925,7 +1920,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3185</v>
       </c>
@@ -1933,7 +1928,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3187</v>
       </c>
@@ -1941,18 +1936,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3190</v>
       </c>
       <c r="B87" t="s">
         <v>33</v>
       </c>
-      <c r="E87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3193</v>
       </c>
@@ -1960,7 +1952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3194</v>
       </c>
@@ -1968,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3198</v>
       </c>
@@ -1976,7 +1968,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3222</v>
       </c>
@@ -1984,7 +1976,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3222</v>
       </c>
@@ -1995,7 +1987,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3285</v>
       </c>
@@ -2003,7 +1995,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3401</v>
       </c>
@@ -2011,7 +2003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3504</v>
       </c>
@@ -2019,7 +2011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3508</v>
       </c>
@@ -2155,7 +2147,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4005</v>
       </c>
@@ -2165,11 +2157,8 @@
       <c r="D113" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E113" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>4401</v>
       </c>
@@ -2180,7 +2169,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>4628</v>
       </c>
@@ -2191,7 +2180,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>4629</v>
       </c>
@@ -2202,7 +2191,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4633</v>
       </c>
@@ -2212,11 +2201,8 @@
       <c r="D117" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E117" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>4636</v>
       </c>
@@ -2226,11 +2212,8 @@
       <c r="D118" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E118" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>4637</v>
       </c>
@@ -2241,7 +2224,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>4644</v>
       </c>
@@ -2251,11 +2234,8 @@
       <c r="D120" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E120" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4645</v>
       </c>
@@ -2266,7 +2246,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6035</v>
       </c>
@@ -2277,7 +2257,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>6333</v>
       </c>
@@ -2288,7 +2268,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>6609</v>
       </c>
@@ -2299,7 +2279,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6616</v>
       </c>
@@ -2310,7 +2290,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6617</v>
       </c>
@@ -2320,11 +2300,8 @@
       <c r="D126" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E126" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6630</v>
       </c>
@@ -2334,11 +2311,8 @@
       <c r="D127" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E127" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>6631</v>
       </c>
@@ -2348,11 +2322,8 @@
       <c r="D128" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E128" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6632</v>
       </c>
@@ -2362,11 +2333,8 @@
       <c r="D129" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E129" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6653</v>
       </c>
@@ -2376,11 +2344,8 @@
       <c r="D130" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E130" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>6655</v>
       </c>
@@ -2390,11 +2355,8 @@
       <c r="D131" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E131" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6656</v>
       </c>
@@ -2404,11 +2366,8 @@
       <c r="D132" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E132" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6657</v>
       </c>
@@ -2418,11 +2377,8 @@
       <c r="D133" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E133" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6662</v>
       </c>
@@ -2432,11 +2388,8 @@
       <c r="D134" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E134" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6664</v>
       </c>
@@ -2447,7 +2400,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6665</v>
       </c>
@@ -2457,11 +2410,8 @@
       <c r="D136" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E136" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6667</v>
       </c>
@@ -2471,11 +2421,8 @@
       <c r="D137" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E137" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6671</v>
       </c>
@@ -2485,11 +2432,8 @@
       <c r="D138" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E138" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6672</v>
       </c>
@@ -2499,11 +2443,8 @@
       <c r="D139" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E139" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6673</v>
       </c>
@@ -2513,11 +2454,8 @@
       <c r="D140" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E140" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6675</v>
       </c>
@@ -2527,11 +2465,8 @@
       <c r="D141" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E141" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6676</v>
       </c>
@@ -2542,7 +2477,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6691</v>
       </c>
@@ -2552,11 +2487,8 @@
       <c r="D143" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E143" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6692</v>
       </c>
@@ -2566,11 +2498,8 @@
       <c r="D144" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E144" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6693</v>
       </c>
@@ -2580,11 +2509,8 @@
       <c r="D145" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E145" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6694</v>
       </c>
@@ -2595,7 +2521,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6695</v>
       </c>
@@ -2606,7 +2532,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6696</v>
       </c>
@@ -2617,7 +2543,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>7000</v>
       </c>
@@ -2630,11 +2556,8 @@
       <c r="D149" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E149" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>7001</v>
       </c>
@@ -2647,11 +2570,8 @@
       <c r="D150" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E150" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>7002</v>
       </c>
@@ -2664,11 +2584,8 @@
       <c r="D151" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E151" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>7003</v>
       </c>
@@ -2681,11 +2598,8 @@
       <c r="D152" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E152" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>7004</v>
       </c>
@@ -2698,11 +2612,8 @@
       <c r="D153" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E153" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>7005</v>
       </c>
@@ -2715,11 +2626,8 @@
       <c r="D154" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E154" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>7006</v>
       </c>
@@ -2732,11 +2640,8 @@
       <c r="D155" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E155" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>7007</v>
       </c>
@@ -2749,11 +2654,8 @@
       <c r="D156" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E156" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>7008</v>
       </c>
@@ -2766,11 +2668,8 @@
       <c r="D157" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E157" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>7009</v>
       </c>
@@ -2783,11 +2682,8 @@
       <c r="D158" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E158" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>7010</v>
       </c>
@@ -2800,11 +2696,8 @@
       <c r="D159" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E159" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>7011</v>
       </c>
@@ -2817,11 +2710,8 @@
       <c r="D160" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E160" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>7012</v>
       </c>
@@ -2834,11 +2724,8 @@
       <c r="D161" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E161" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>7013</v>
       </c>
@@ -2851,11 +2738,8 @@
       <c r="D162" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E162" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>7014</v>
       </c>
@@ -2868,11 +2752,8 @@
       <c r="D163" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E163" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>7015</v>
       </c>
@@ -2885,11 +2766,8 @@
       <c r="D164" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E164" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>7016</v>
       </c>
@@ -2902,11 +2780,8 @@
       <c r="D165" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E165" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>7017</v>
       </c>
@@ -2919,11 +2794,8 @@
       <c r="D166" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E166" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>7018</v>
       </c>
@@ -2936,11 +2808,8 @@
       <c r="D167" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E167" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>7019</v>
       </c>
@@ -2953,11 +2822,8 @@
       <c r="D168" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E168" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7020</v>
       </c>
@@ -2970,11 +2836,8 @@
       <c r="D169" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E169" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7021</v>
       </c>
@@ -2987,11 +2850,8 @@
       <c r="D170" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E170" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>7022</v>
       </c>
@@ -3004,11 +2864,8 @@
       <c r="D171" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E171" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>7023</v>
       </c>
@@ -3021,11 +2878,8 @@
       <c r="D172" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E172" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>7024</v>
       </c>
@@ -3038,11 +2892,8 @@
       <c r="D173" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E173" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>7025</v>
       </c>
@@ -3055,11 +2906,8 @@
       <c r="D174" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E174" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>7026</v>
       </c>
@@ -3072,11 +2920,8 @@
       <c r="D175" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E175" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>7027</v>
       </c>
@@ -3088,9 +2933,6 @@
       </c>
       <c r="D176" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="E176" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -3106,9 +2948,6 @@
       <c r="D177" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E177" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
@@ -3120,6 +2959,9 @@
       <c r="D178" s="3" t="s">
         <v>198</v>
       </c>
+      <c r="E178" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
@@ -3142,9 +2984,6 @@
       <c r="D180" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E180" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
@@ -3159,9 +2998,6 @@
       <c r="D181" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E181" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
@@ -3190,9 +3026,6 @@
       <c r="D183" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E183" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
@@ -3207,9 +3040,6 @@
       <c r="D184" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E184" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
@@ -3224,9 +3054,6 @@
       <c r="D185" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E185" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
@@ -3291,7 +3118,7 @@
         <v>214</v>
       </c>
       <c r="C191" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>224</v>
@@ -3397,72 +3224,62 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>3302</v>
+      </c>
       <c r="B201" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2503</v>
+      </c>
       <c r="B202" t="s">
-        <v>226</v>
+        <v>238</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2501</v>
+      </c>
       <c r="B203" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>6675</v>
+      </c>
       <c r="B204" t="s">
-        <v>228</v>
+        <v>242</v>
+      </c>
+      <c r="C204" t="s">
+        <v>241</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B205" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
+      <c r="A205">
+        <v>3032</v>
+      </c>
+      <c r="B205" t="s">
+        <v>240</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
-        <v>237</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F200" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F205" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3473,12 +3290,12 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="44.85546875" customWidth="1"/>
@@ -3514,7 +3331,7 @@
       <c r="B2" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3525,7 +3342,7 @@
       <c r="B3" t="s">
         <v>226</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3536,7 +3353,7 @@
       <c r="B4" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3545,9 +3362,9 @@
         <v>3876</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3556,9 +3373,9 @@
         <v>3871</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3572,35 +3389,46 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3117</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3009</v>
       </c>
@@ -3608,7 +3436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3158</v>
       </c>
@@ -3616,7 +3444,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3006</v>
       </c>
@@ -3624,7 +3452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3047</v>
       </c>
@@ -3632,7 +3460,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3111</v>
       </c>
@@ -3640,7 +3468,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3020</v>
       </c>
@@ -3648,8 +3476,33 @@
         <v>61</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3010</v>
+      </c>
+      <c r="B9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3013</v>
+      </c>
+      <c r="B10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3664,7 +3517,7 @@
       <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -3757,7 +3610,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="55.28515625" bestFit="1" customWidth="1"/>
